--- a/outputs-HGR-r202/test-p__Firmicutes_C_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-p__Firmicutes_C_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="434">
   <si>
     <t>Row</t>
   </si>
@@ -1336,7 +1336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1346,14 +1346,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1372,4719 +1376,4719 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>76758.056553976247</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>67583.379576823747</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>43548.991552605294</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>76992.495430206836</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>87288.705098586142</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>80574.677556956958</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>92805.524277502118</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>45444.473239653526</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>81429.302320699295</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>93087.102503242757</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>74961.51844755662</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>44149.243167694658</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>84101.875134643706</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>75108.200223547625</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>75108.200223547625</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>48046.822349015085</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>75108.200223547625</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>79776.206237429506</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>62837.864262718838</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>79355.761373587709</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>41607.46667613028</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>86962.338645226337</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>49327.500611775627</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>79484.202213344775</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>41162.662945330449</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>77996.004812202111</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>69999.936857029083</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>85711.900636234088</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>92086.503888010469</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>62837.864262718838</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>42638.320639447149</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>41462.029289226819</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>41780.044003433301</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>80362.982961482849</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>82046.891447504895</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>50511.808735435174</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>80917.958281850777</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>56670.75383407218</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>36224.631966904752</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>62285.137383378213</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>62326.98817688429</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>87848.705433964074</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>44974.535057950256</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>83801.329178007742</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>39011.771943120388</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>76338.750451813583</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>73051.976246701335</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>74924.290232484447</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>98831.916458592488</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>48346.839314542522</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>93064.062107859936</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>45099.515962780119</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>47096.840087489065</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>43619.699697785109</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>79295.407203809315</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>41108.605999086503</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>43735.620813240792</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>73753.272304208396</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>48863.660018942188</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>76536.421763363949</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>41815.300816562405</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>84700.482154871075</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>40919.800413075543</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>67904.881798809816</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>61639.623376740303</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>67211.857547208012</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>63202.801167516795</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>27747.367802878714</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>74444.414897041992</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>80531.396989307454</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>51363.700001543853</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>71608.308507057285</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>74611.491747145032</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>29165.918186692765</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>88366.930807167053</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>49152.309527321719</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>70217.892250809353</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>46581.974004538351</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>64486.212715209433</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>61206.882339967196</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>65674.019490162551</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>59156.933580174795</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>57640.080371918724</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>60233.029722428386</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>57474.259208245188</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>79737.168493377452</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>35826.465137287028</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>61432.990038660151</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>50172.627722121993</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>10882.104382453723</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>83116.923065841518</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>63059.768014095316</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>71955.925933007296</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>56271.804204263957</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>36090.433412810715</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>43350.414426379546</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>61090.85922821796</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>54966.793151940336</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>42059.262904550415</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>38219.800320298717</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>101</v>
+      <c r="A102" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>47377.698032362314</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
+      <c r="A103" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>47496.705382346889</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>103</v>
+      <c r="A104" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>66779.247097852887</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>104</v>
+      <c r="A105" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>37671.62470782132</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
+      <c r="A106" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>37623.893615410227</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
+      <c r="A107" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>42831.968326419956</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
+      <c r="A108" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>37623.893615410227</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
+      <c r="A109" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>38470.094806400084</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>109</v>
+      <c r="A110" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>36597.171043799244</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>110</v>
+      <c r="A111" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>100814.76466921954</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>111</v>
+      <c r="A112" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>60944.05787001217</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>112</v>
+      <c r="A113" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>74425.715559222081</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>113</v>
+      <c r="A114" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>32958.109088007841</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>114</v>
+      <c r="A115" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>67558.238976079301</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>115</v>
+      <c r="A116" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>59224.066810971111</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>116</v>
+      <c r="A117" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>45903.701018621665</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>117</v>
+      <c r="A118" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>84227.214876323356</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>118</v>
+      <c r="A119" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>61708.262758883255</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>119</v>
+      <c r="A120" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>77848.465210132068</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
-        <v>120</v>
+      <c r="A121" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>35871.559656574071</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>121</v>
+      <c r="A122" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>49851.199492937943</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
-        <v>122</v>
+      <c r="A123" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>46230.575387549456</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
-        <v>123</v>
+      <c r="A124" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>44623.728001009105</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>124</v>
+      <c r="A125" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>80936.097583170267</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>125</v>
+      <c r="A126" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>74363.854947079759</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>126</v>
+      <c r="A127" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>90662.448865045546</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>127</v>
+      <c r="A128" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>61061.019849688193</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>128</v>
+      <c r="A129" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>91370.608249378944</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>129</v>
+      <c r="A130" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>85781.503569259512</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>130</v>
+      <c r="A131" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>60746.822151104818</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
-        <v>131</v>
+      <c r="A132" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>74973.043973194654</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>132</v>
+      <c r="A133" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>78323.369689267056</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
-        <v>133</v>
+      <c r="A134" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>100453.76826903422</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
-        <v>134</v>
+      <c r="A135" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>78926.333066059247</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
-        <v>135</v>
+      <c r="A136" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>73142.857755412522</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
-        <v>136</v>
+      <c r="A137" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>83058.423322028262</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
-        <v>137</v>
+      <c r="A138" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>101477.058855717</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
-        <v>138</v>
+      <c r="A139" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>75555.15151018351</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
-        <v>139</v>
+      <c r="A140" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>98853.950955201159</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
-        <v>140</v>
+      <c r="A141" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>76018.891102220034</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
-        <v>141</v>
+      <c r="A142" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>97756.286115872528</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
-        <v>142</v>
+      <c r="A143" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>85852.717544239116</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>143</v>
+      <c r="A144" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>67303.985392080038</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
-        <v>144</v>
+      <c r="A145" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>56243.961110920631</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
-        <v>145</v>
+      <c r="A146" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>82595.25426064778</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
-        <v>146</v>
+      <c r="A147" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>84011.218743031874</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
-        <v>147</v>
+      <c r="A148" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>88300.781032437968</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
-        <v>148</v>
+      <c r="A149" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>58379.892557308907</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
-        <v>149</v>
+      <c r="A150" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>83604.236126050411</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
-        <v>150</v>
+      <c r="A151" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>82315.506282862669</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
-        <v>151</v>
+      <c r="A152" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>84348.786977742871</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
-        <v>152</v>
+      <c r="A153" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>93660.013470508828</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
-        <v>153</v>
+      <c r="A154" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>96150.428370955633</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
-        <v>154</v>
+      <c r="A155" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>78471.061782706136</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
-        <v>155</v>
+      <c r="A156" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>96354.611408780547</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
-        <v>156</v>
+      <c r="A157" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>80573.374285817088</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
-        <v>157</v>
+      <c r="A158" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>97503.486932907676</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
-        <v>158</v>
+      <c r="A159" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>56481.053232549399</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
-        <v>159</v>
+      <c r="A160" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>68972.139377233616</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
-        <v>160</v>
+      <c r="A161" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>75710.765602353844</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>161</v>
+      <c r="A162" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>88724.542613319645</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
-        <v>162</v>
+      <c r="A163" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>80091.075926622783</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
-        <v>163</v>
+      <c r="A164" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>75197.443893275093</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>164</v>
+      <c r="A165" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>62683.492019497004</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
-        <v>165</v>
+      <c r="A166" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>62698.014380067165</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>166</v>
+      <c r="A167" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>78491.891294156128</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>167</v>
+      <c r="A168" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>57271.515861269887</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
-        <v>168</v>
+      <c r="A169" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>73134.450297408301</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>169</v>
+      <c r="A170" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>82097.338672028432</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>170</v>
+      <c r="A171" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>50715.472822433439</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
-        <v>171</v>
+      <c r="A172" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>86752.645386197502</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
-        <v>172</v>
+      <c r="A173" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>84014.770259599638</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
-        <v>173</v>
+      <c r="A174" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>84707.087168615108</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
-        <v>174</v>
+      <c r="A175" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>92685.512703651635</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>175</v>
+      <c r="A176" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>67566.105647173215</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
-        <v>176</v>
+      <c r="A177" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>80900.220136728909</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
-        <v>177</v>
+      <c r="A178" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>68359.673513026879</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
-        <v>178</v>
+      <c r="A179" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>68636.277972034921</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>179</v>
+      <c r="A180" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>69419.19179715222</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
-        <v>180</v>
+      <c r="A181" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>85841.873556854945</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
-        <v>181</v>
+      <c r="A182" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>58487.229832719779</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
-        <v>182</v>
+      <c r="A183" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>86891.587648800705</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
-        <v>183</v>
+      <c r="A184" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>60298.279806488048</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
-        <v>184</v>
+      <c r="A185" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>74801.854766403107</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
-        <v>185</v>
+      <c r="A186" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>92410.119228294672</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
-        <v>186</v>
+      <c r="A187" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>63619.554084019386</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
-        <v>187</v>
+      <c r="A188" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>71328.536176782945</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
-        <v>188</v>
+      <c r="A189" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>91695.306727840085</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
-        <v>189</v>
+      <c r="A190" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>72851.848422821538</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
-        <v>190</v>
+      <c r="A191" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>75093.476356904823</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
-        <v>191</v>
+      <c r="A192" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>63687.873660289682</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
-        <v>192</v>
+      <c r="A193" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>74240.021351867326</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
-        <v>193</v>
+      <c r="A194" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>61903.984734718324</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
-        <v>194</v>
+      <c r="A195" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>92425.982798287791</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
-        <v>195</v>
+      <c r="A196" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>75370.08877187701</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
-        <v>196</v>
+      <c r="A197" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>91444.950175629303</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
-        <v>197</v>
+      <c r="A198" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>69068.932973700081</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
-        <v>198</v>
+      <c r="A199" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>87782.180833665203</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
-        <v>199</v>
+      <c r="A200" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>72626.219512679672</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
-        <v>200</v>
+      <c r="A201" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>75945.692468888083</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
-        <v>201</v>
+      <c r="A202" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>76768.987469674583</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
-        <v>202</v>
+      <c r="A203" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>58084.799304621731</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
-        <v>203</v>
+      <c r="A204" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>56256.225070015833</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
-        <v>204</v>
+      <c r="A205" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>77182.86613691847</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
-        <v>205</v>
+      <c r="A206" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>88052.559417874116</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
-        <v>206</v>
+      <c r="A207" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>98043.509870594949</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
-        <v>207</v>
+      <c r="A208" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>83134.729121587981</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
-        <v>208</v>
+      <c r="A209" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>83523.413326850423</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
-        <v>209</v>
+      <c r="A210" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>55340.189885422573</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
-        <v>210</v>
+      <c r="A211" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>82042.397856537689</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
-        <v>211</v>
+      <c r="A212" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>30558.075313312849</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
-        <v>212</v>
+      <c r="A213" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>69778.222622509566</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
-        <v>213</v>
+      <c r="A214" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>61380.076573422004</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
-        <v>214</v>
+      <c r="A215" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>56548.23275339618</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
-        <v>215</v>
+      <c r="A216" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>57456.346372062704</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
-        <v>216</v>
+      <c r="A217" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>85444.84281657364</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
-        <v>217</v>
+      <c r="A218" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>67494.609968227029</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
-        <v>218</v>
+      <c r="A219" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>74491.328114424803</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
-        <v>219</v>
+      <c r="A220" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>53298.865815264275</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
-        <v>220</v>
+      <c r="A221" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>56548.23275339618</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
-        <v>221</v>
+      <c r="A222" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>60645.841392372065</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
-        <v>222</v>
+      <c r="A223" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>64680.51341980396</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
-        <v>223</v>
+      <c r="A224" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>73646.521186394064</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
-        <v>224</v>
+      <c r="A225" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>62810.557681025894</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
-        <v>225</v>
+      <c r="A226" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>37766.634109287566</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
-        <v>226</v>
+      <c r="A227" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>59249.930398528726</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
-        <v>227</v>
+      <c r="A228" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>68585.107322953074</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
-        <v>228</v>
+      <c r="A229" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>78567.184081459738</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
-        <v>229</v>
+      <c r="A230" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>69734.894353903554</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="s">
-        <v>230</v>
+      <c r="A231" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>87316.172112742439</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
-        <v>231</v>
+      <c r="A232" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>62937.351393942969</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
-        <v>232</v>
+      <c r="A233" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>64523.214150770815</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
-        <v>233</v>
+      <c r="A234" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>87455.496448189049</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
-        <v>234</v>
+      <c r="A235" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>48205.469243719315</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
-        <v>235</v>
+      <c r="A236" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>69778.222622509566</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
-        <v>236</v>
+      <c r="A237" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>55914.284733282562</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
-        <v>237</v>
+      <c r="A238" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>73425.901904763115</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
-        <v>238</v>
+      <c r="A239" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>57504.737309553107</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
-        <v>239</v>
+      <c r="A240" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>84561.520445443632</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
-        <v>240</v>
+      <c r="A241" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>71079.124863308418</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
-        <v>241</v>
+      <c r="A242" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>93566.438543152428</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
-        <v>242</v>
+      <c r="A243" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>78556.939238437641</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
-        <v>243</v>
+      <c r="A244" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>55442.62096128214</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="s">
-        <v>244</v>
+      <c r="A245" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>83985.260182971077</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
-        <v>245</v>
+      <c r="A246" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>73395.288618452541</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="s">
-        <v>246</v>
+      <c r="A247" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>79850.64258326008</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="s">
-        <v>247</v>
+      <c r="A248" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>55415.113275484968</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
-        <v>248</v>
+      <c r="A249" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>83279.186011253434</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
-        <v>249</v>
+      <c r="A250" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>52785.870587931771</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="s">
-        <v>250</v>
+      <c r="A251" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>75161.116913074467</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="s">
-        <v>251</v>
+      <c r="A252" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>77562.404128059847</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="s">
-        <v>252</v>
+      <c r="A253" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>66482.72461704335</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="s">
-        <v>253</v>
+      <c r="A254" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>49820.232213549418</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="s">
-        <v>254</v>
+      <c r="A255" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>56706.058151206889</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
-        <v>255</v>
+      <c r="A256" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>74488.296555303794</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="s">
-        <v>256</v>
+      <c r="A257" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>80956.9331806025</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="s">
-        <v>257</v>
+      <c r="A258" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>76807.967244869636</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="s">
-        <v>258</v>
+      <c r="A259" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>76807.967244869636</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="s">
-        <v>259</v>
+      <c r="A260" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>37153.981532008635</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="s">
-        <v>260</v>
+      <c r="A261" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>47927.034352356379</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="s">
-        <v>261</v>
+      <c r="A262" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>58020.287470948519</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="s">
-        <v>262</v>
+      <c r="A263" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>64536.600161501905</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="s">
-        <v>263</v>
+      <c r="A264" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>73039.173978218445</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="s">
-        <v>264</v>
+      <c r="A265" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>92827.971703941948</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="s">
-        <v>265</v>
+      <c r="A266" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>63829.116422645107</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="s">
-        <v>266</v>
+      <c r="A267" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>56941.850636928502</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="s">
-        <v>267</v>
+      <c r="A268" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>65418.041469561591</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="s">
-        <v>268</v>
+      <c r="A269" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>48224.638817408209</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="s">
-        <v>269</v>
+      <c r="A270" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>70806.754093698604</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="s">
-        <v>270</v>
+      <c r="A271" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>73857.270400680471</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="s">
-        <v>271</v>
+      <c r="A272" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>87885.642908553971</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="s">
-        <v>272</v>
+      <c r="A273" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>63778.923746353714</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="s">
-        <v>273</v>
+      <c r="A274" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>80361.65073422798</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="s">
-        <v>274</v>
+      <c r="A275" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>54322.390502001494</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="s">
-        <v>275</v>
+      <c r="A276" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>77018.826700036152</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="s">
-        <v>276</v>
+      <c r="A277" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>68205.263301630373</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="s">
-        <v>277</v>
+      <c r="A278" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>61538.780966948994</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="s">
-        <v>278</v>
+      <c r="A279" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>61889.262217698779</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="s">
-        <v>279</v>
+      <c r="A280" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>69310.848688175654</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="s">
-        <v>280</v>
+      <c r="A281" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>70307.808736939565</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="s">
-        <v>281</v>
+      <c r="A282" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>78391.635189638619</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="s">
-        <v>282</v>
+      <c r="A283" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>91157.745874864297</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="s">
-        <v>283</v>
+      <c r="A284" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>39418.562968411396</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="s">
-        <v>284</v>
+      <c r="A285" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>42763.087712090026</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="s">
-        <v>285</v>
+      <c r="A286" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>38391.069696747698</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="s">
-        <v>286</v>
+      <c r="A287" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>101967.02302072878</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="s">
-        <v>287</v>
+      <c r="A288" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>89890.576196013862</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="s">
-        <v>288</v>
+      <c r="A289" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="B289">
-        <v>1</v>
+        <v>81810.966894231475</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="s">
-        <v>289</v>
+      <c r="A290" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>95928.297026495115</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="s">
-        <v>290</v>
+      <c r="A291" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>81810.966894231475</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="s">
-        <v>291</v>
+      <c r="A292" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>83153.650403532884</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="s">
-        <v>292</v>
+      <c r="A293" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>93276.76740304452</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="s">
-        <v>293</v>
+      <c r="A294" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>82435.065997275553</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="s">
-        <v>294</v>
+      <c r="A295" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>83751.797871857882</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="s">
-        <v>295</v>
+      <c r="A296" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>77795.830421290098</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="s">
-        <v>296</v>
+      <c r="A297" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>93061.393011600245</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="s">
-        <v>297</v>
+      <c r="A298" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>76281.003868274711</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="s">
-        <v>298</v>
+      <c r="A299" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>57914.70065656201</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="s">
-        <v>299</v>
+      <c r="A300" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>70583.993858676258</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="s">
-        <v>300</v>
+      <c r="A301" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>91197.874792665694</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="s">
-        <v>301</v>
+      <c r="A302" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>73739.429943704032</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="s">
-        <v>302</v>
+      <c r="A303" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>49769.526593512041</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="s">
-        <v>303</v>
+      <c r="A304" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>83312.338511958878</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="s">
-        <v>304</v>
+      <c r="A305" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>70576.623375951749</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="s">
-        <v>305</v>
+      <c r="A306" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>77449.516665328207</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="s">
-        <v>306</v>
+      <c r="A307" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>64867.231331700314</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="s">
-        <v>307</v>
+      <c r="A308" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>81446.960619117381</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="s">
-        <v>308</v>
+      <c r="A309" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>79052.536807393117</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="s">
-        <v>309</v>
+      <c r="A310" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>62870.90689126683</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="s">
-        <v>310</v>
+      <c r="A311" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>39058.076643799577</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="s">
-        <v>311</v>
+      <c r="A312" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>84273.762260966047</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="s">
-        <v>312</v>
+      <c r="A313" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>41580.777905573195</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="s">
-        <v>313</v>
+      <c r="A314" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>77624.322204831115</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="s">
-        <v>314</v>
+      <c r="A315" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>70657.647840401114</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="s">
-        <v>315</v>
+      <c r="A316" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>84934.540803973432</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="s">
-        <v>316</v>
+      <c r="A317" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>77387.460730985709</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="s">
-        <v>317</v>
+      <c r="A318" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>80882.375625775225</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="s">
-        <v>318</v>
+      <c r="A319" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>84934.540803973432</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="s">
-        <v>319</v>
+      <c r="A320" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>42961.385922540183</v>
       </c>
       <c r="C320">
         <v>1</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="s">
-        <v>320</v>
+      <c r="A321" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>61929.486958257941</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="s">
-        <v>321</v>
+      <c r="A322" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>76291.189404790333</v>
       </c>
       <c r="C322">
         <v>1</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="s">
-        <v>322</v>
+      <c r="A323" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>88467.914174572856</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="s">
-        <v>323</v>
+      <c r="A324" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>71738.139201299316</v>
       </c>
       <c r="C324">
         <v>1</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="s">
-        <v>324</v>
+      <c r="A325" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>66923.436514691813</v>
       </c>
       <c r="C325">
         <v>1</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="s">
-        <v>325</v>
+      <c r="A326" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>66923.436514691813</v>
       </c>
       <c r="C326">
         <v>1</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="s">
-        <v>326</v>
+      <c r="A327" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>68305.715217047196</v>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="s">
-        <v>327</v>
+      <c r="A328" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>69766.610172687535</v>
       </c>
       <c r="C328">
         <v>1</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="s">
-        <v>328</v>
+      <c r="A329" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>63882.570641655504</v>
       </c>
       <c r="C329">
         <v>1</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="s">
-        <v>329</v>
+      <c r="A330" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>48670.870106897855</v>
       </c>
       <c r="C330">
         <v>1</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="s">
-        <v>330</v>
+      <c r="A331" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>76126.130250270362</v>
       </c>
       <c r="C331">
         <v>1</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="s">
-        <v>331</v>
+      <c r="A332" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>87196.457183341176</v>
       </c>
       <c r="C332">
         <v>1</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="s">
-        <v>332</v>
+      <c r="A333" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>58770.87667585809</v>
       </c>
       <c r="C333">
         <v>1</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="s">
-        <v>333</v>
+      <c r="A334" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>61050.655656266506</v>
       </c>
       <c r="C334">
         <v>1</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="s">
-        <v>334</v>
+      <c r="A335" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>54772.958261414431</v>
       </c>
       <c r="C335">
         <v>1</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="s">
-        <v>335</v>
+      <c r="A336" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>69697.462223884184</v>
       </c>
       <c r="C336">
         <v>1</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="s">
-        <v>336</v>
+      <c r="A337" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>44682.25546545726</v>
       </c>
       <c r="C337">
         <v>1</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="s">
-        <v>337</v>
+      <c r="A338" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>59526.885179346413</v>
       </c>
       <c r="C338">
         <v>1</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="s">
-        <v>338</v>
+      <c r="A339" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>45372.971418479618</v>
       </c>
       <c r="C339">
         <v>1</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="s">
-        <v>339</v>
+      <c r="A340" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>52197.208795355822</v>
       </c>
       <c r="C340">
         <v>1</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="s">
-        <v>340</v>
+      <c r="A341" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>49313.744245806636</v>
       </c>
       <c r="C341">
         <v>1</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="s">
-        <v>341</v>
+      <c r="A342" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>50807.508649413503</v>
       </c>
       <c r="C342">
         <v>1</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="s">
-        <v>342</v>
+      <c r="A343" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>39532.079327432759</v>
       </c>
       <c r="C343">
         <v>1</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="s">
-        <v>343</v>
+      <c r="A344" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>78282.936042391506</v>
       </c>
       <c r="C344">
         <v>1</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="s">
-        <v>344</v>
+      <c r="A345" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>50314.49400158471</v>
       </c>
       <c r="C345">
         <v>1</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="s">
-        <v>345</v>
+      <c r="A346" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>83243.326206197948</v>
       </c>
       <c r="C346">
         <v>1</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="s">
-        <v>346</v>
+      <c r="A347" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>57432.185936655791</v>
       </c>
       <c r="C347">
         <v>1</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="s">
-        <v>347</v>
+      <c r="A348" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>52351.026713261948</v>
       </c>
       <c r="C348">
         <v>1</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="s">
-        <v>348</v>
+      <c r="A349" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>50224.715774921162</v>
       </c>
       <c r="C349">
         <v>1</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="s">
-        <v>349</v>
+      <c r="A350" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>58957.011969116982</v>
       </c>
       <c r="C350">
         <v>1</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="s">
-        <v>350</v>
+      <c r="A351" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>53470.069563818717</v>
       </c>
       <c r="C351">
         <v>1</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="s">
-        <v>351</v>
+      <c r="A352" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>39964.694220585108</v>
       </c>
       <c r="C352">
         <v>1</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="s">
-        <v>352</v>
+      <c r="A353" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>56636.270192925746</v>
       </c>
       <c r="C353">
         <v>1</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="s">
-        <v>353</v>
+      <c r="A354" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>42444.536661099206</v>
       </c>
       <c r="C354">
         <v>1</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="s">
-        <v>354</v>
+      <c r="A355" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>40433.336318845642</v>
       </c>
       <c r="C355">
         <v>1</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="s">
-        <v>355</v>
+      <c r="A356" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="B356">
-        <v>1</v>
+        <v>57432.185936655791</v>
       </c>
       <c r="C356">
         <v>1</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="s">
-        <v>356</v>
+      <c r="A357" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="B357">
-        <v>1</v>
+        <v>47042.252736557813</v>
       </c>
       <c r="C357">
         <v>1</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="s">
-        <v>357</v>
+      <c r="A358" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>61346.331733577565</v>
       </c>
       <c r="C358">
         <v>1</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="s">
-        <v>358</v>
+      <c r="A359" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="B359">
-        <v>1</v>
+        <v>82792.60931118943</v>
       </c>
       <c r="C359">
         <v>1</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="s">
-        <v>359</v>
+      <c r="A360" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>61346.331733577565</v>
       </c>
       <c r="C360">
         <v>1</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="1" t="s">
-        <v>360</v>
+      <c r="A361" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>36794.072963042781</v>
       </c>
       <c r="C361">
         <v>1</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="1" t="s">
-        <v>361</v>
+      <c r="A362" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>60932.876293420442</v>
       </c>
       <c r="C362">
         <v>1</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="s">
-        <v>362</v>
+      <c r="A363" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>61346.331733577565</v>
       </c>
       <c r="C363">
         <v>1</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="1" t="s">
-        <v>363</v>
+      <c r="A364" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>92883.985996319025</v>
       </c>
       <c r="C364">
         <v>1</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="1" t="s">
-        <v>364</v>
+      <c r="A365" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>64139.262566420512</v>
       </c>
       <c r="C365">
         <v>1</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="1" t="s">
-        <v>365</v>
+      <c r="A366" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>85824.704376464142</v>
       </c>
       <c r="C366">
         <v>1</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="1" t="s">
-        <v>366</v>
+      <c r="A367" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>35619.777393921206</v>
       </c>
       <c r="C367">
         <v>1</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="1" t="s">
-        <v>367</v>
+      <c r="A368" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>51708.192564429613</v>
       </c>
       <c r="C368">
         <v>1</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="1" t="s">
-        <v>368</v>
+      <c r="A369" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>61346.331733577565</v>
       </c>
       <c r="C369">
         <v>1</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="1" t="s">
-        <v>369</v>
+      <c r="A370" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>85824.704376464142</v>
       </c>
       <c r="C370">
         <v>1</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="1" t="s">
-        <v>370</v>
+      <c r="A371" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>79896.808117691966</v>
       </c>
       <c r="C371">
         <v>1</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="1" t="s">
-        <v>371</v>
+      <c r="A372" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>58541.623936944481</v>
       </c>
       <c r="C372">
         <v>1</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="1" t="s">
-        <v>372</v>
+      <c r="A373" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>48147.918817012964</v>
       </c>
       <c r="C373">
         <v>1</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="1" t="s">
-        <v>373</v>
+      <c r="A374" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>78338.394280285167</v>
       </c>
       <c r="C374">
         <v>1</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="1" t="s">
-        <v>374</v>
+      <c r="A375" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="B375">
-        <v>1</v>
+        <v>61346.331733577565</v>
       </c>
       <c r="C375">
         <v>1</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="1" t="s">
-        <v>375</v>
+      <c r="A376" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>60184.798488136745</v>
       </c>
       <c r="C376">
         <v>1</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="1" t="s">
-        <v>376</v>
+      <c r="A377" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>61263.645271102127</v>
       </c>
       <c r="C377">
         <v>1</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="1" t="s">
-        <v>377</v>
+      <c r="A378" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>91497.360891895863</v>
       </c>
       <c r="C378">
         <v>1</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="1" t="s">
-        <v>378</v>
+      <c r="A379" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>60184.798488136745</v>
       </c>
       <c r="C379">
         <v>1</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="1" t="s">
-        <v>379</v>
+      <c r="A380" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>82284.568510135083</v>
       </c>
       <c r="C380">
         <v>1</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="1" t="s">
-        <v>380</v>
+      <c r="A381" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>61346.331733577565</v>
       </c>
       <c r="C381">
         <v>1</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="1" t="s">
-        <v>381</v>
+      <c r="A382" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>61346.331733577565</v>
       </c>
       <c r="C382">
         <v>1</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="1" t="s">
-        <v>382</v>
+      <c r="A383" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>83942.59179733276</v>
       </c>
       <c r="C383">
         <v>1</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="1" t="s">
-        <v>383</v>
+      <c r="A384" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>82792.60931118943</v>
       </c>
       <c r="C384">
         <v>1</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="1" t="s">
-        <v>384</v>
+      <c r="A385" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>64139.262566420512</v>
       </c>
       <c r="C385">
         <v>1</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="1" t="s">
-        <v>385</v>
+      <c r="A386" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>54722.055022782777</v>
       </c>
       <c r="C386">
         <v>1</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="1" t="s">
-        <v>386</v>
+      <c r="A387" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>96362.851599208618</v>
       </c>
       <c r="C387">
         <v>1</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="1" t="s">
-        <v>387</v>
+      <c r="A388" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>60184.798488136745</v>
       </c>
       <c r="C388">
         <v>1</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="1" t="s">
-        <v>388</v>
+      <c r="A389" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>83991.973964203367</v>
       </c>
       <c r="C389">
         <v>1</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="1" t="s">
-        <v>389</v>
+      <c r="A390" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>55365.836469892922</v>
       </c>
       <c r="C390">
         <v>1</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="1" t="s">
-        <v>390</v>
+      <c r="A391" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="B391">
-        <v>1</v>
+        <v>48147.918817012964</v>
       </c>
       <c r="C391">
         <v>1</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="1" t="s">
-        <v>391</v>
+      <c r="A392" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>61346.331733577565</v>
       </c>
       <c r="C392">
         <v>1</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="1" t="s">
-        <v>392</v>
+      <c r="A393" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>60757.480142281434</v>
       </c>
       <c r="C393">
         <v>1</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="1" t="s">
-        <v>393</v>
+      <c r="A394" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>76491.302886420017</v>
       </c>
       <c r="C394">
         <v>1</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="1" t="s">
-        <v>394</v>
+      <c r="A395" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>53278.131883964597</v>
       </c>
       <c r="C395">
         <v>1</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="1" t="s">
-        <v>395</v>
+      <c r="A396" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>60184.798488136745</v>
       </c>
       <c r="C396">
         <v>1</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="1" t="s">
-        <v>396</v>
+      <c r="A397" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>85824.704376464142</v>
       </c>
       <c r="C397">
         <v>1</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="1" t="s">
-        <v>397</v>
+      <c r="A398" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>61346.331733577565</v>
       </c>
       <c r="C398">
         <v>1</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="1" t="s">
-        <v>398</v>
+      <c r="A399" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>85824.704376464142</v>
       </c>
       <c r="C399">
         <v>1</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="1" t="s">
-        <v>399</v>
+      <c r="A400" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>90698.779187766355</v>
       </c>
       <c r="C400">
         <v>1</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="1" t="s">
-        <v>400</v>
+      <c r="A401" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>60184.798488136745</v>
       </c>
       <c r="C401">
         <v>1</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="1" t="s">
-        <v>401</v>
+      <c r="A402" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>85824.704376464142</v>
       </c>
       <c r="C402">
         <v>1</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="1" t="s">
-        <v>402</v>
+      <c r="A403" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>61346.331733577565</v>
       </c>
       <c r="C403">
         <v>1</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="1" t="s">
-        <v>403</v>
+      <c r="A404" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>85985.419394236553</v>
       </c>
       <c r="C404">
         <v>1</v>
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="1" t="s">
-        <v>404</v>
+      <c r="A405" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>61346.331733577565</v>
       </c>
       <c r="C405">
         <v>1</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="1" t="s">
-        <v>405</v>
+      <c r="A406" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>67559.590735136677</v>
       </c>
       <c r="C406">
         <v>1</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="1" t="s">
-        <v>406</v>
+      <c r="A407" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>72743.929664867333</v>
       </c>
       <c r="C407">
         <v>1</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="1" t="s">
-        <v>407</v>
+      <c r="A408" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>83672.352667571002</v>
       </c>
       <c r="C408">
         <v>1</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="1" t="s">
-        <v>408</v>
+      <c r="A409" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>83402.301823822068</v>
       </c>
       <c r="C409">
         <v>1</v>
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="1" t="s">
-        <v>409</v>
+      <c r="A410" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>66040.182415349846</v>
       </c>
       <c r="C410">
         <v>1</v>
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="1" t="s">
-        <v>410</v>
+      <c r="A411" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>84374.624920481889</v>
       </c>
       <c r="C411">
         <v>1</v>
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="1" t="s">
-        <v>411</v>
+      <c r="A412" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>87831.179650024336</v>
       </c>
       <c r="C412">
         <v>1</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="1" t="s">
-        <v>412</v>
+      <c r="A413" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>86709.973422027164</v>
       </c>
       <c r="C413">
         <v>1</v>
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="1" t="s">
-        <v>413</v>
+      <c r="A414" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>67780.737610369732</v>
       </c>
       <c r="C414">
         <v>1</v>
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="1" t="s">
-        <v>414</v>
+      <c r="A415" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>96241.505716468135</v>
       </c>
       <c r="C415">
         <v>1</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="1" t="s">
-        <v>415</v>
+      <c r="A416" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="B416">
-        <v>1</v>
+        <v>81914.445420890537</v>
       </c>
       <c r="C416">
         <v>1</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="1" t="s">
-        <v>416</v>
+      <c r="A417" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>79421.245219372635</v>
       </c>
       <c r="C417">
         <v>1</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="1" t="s">
-        <v>417</v>
+      <c r="A418" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="B418">
-        <v>1</v>
+        <v>77982.450658963411</v>
       </c>
       <c r="C418">
         <v>1</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="1" t="s">
-        <v>418</v>
+      <c r="A419" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>93784.923737146426</v>
       </c>
       <c r="C419">
         <v>1</v>
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="1" t="s">
-        <v>419</v>
+      <c r="A420" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>74773.898003271999</v>
       </c>
       <c r="C420">
         <v>1</v>
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="1" t="s">
-        <v>420</v>
+      <c r="A421" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>94290.210512042511</v>
       </c>
       <c r="C421">
         <v>1</v>
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="1" t="s">
-        <v>421</v>
+      <c r="A422" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>83783.011984103112</v>
       </c>
       <c r="C422">
         <v>1</v>
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="1" t="s">
-        <v>422</v>
+      <c r="A423" s="3" t="s">
+        <v>425</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>97537.044073100493</v>
       </c>
       <c r="C423">
         <v>1</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="1" t="s">
-        <v>423</v>
+      <c r="A424" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>92459.435931892294</v>
       </c>
       <c r="C424">
         <v>1</v>
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="1" t="s">
-        <v>424</v>
+      <c r="A425" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>99420.934705392079</v>
       </c>
       <c r="C425">
         <v>1</v>
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="1" t="s">
-        <v>425</v>
+      <c r="A426" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>92177.167706188819</v>
       </c>
       <c r="C426">
         <v>1</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="1" t="s">
-        <v>426</v>
+      <c r="A427" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>96777.602432974163</v>
       </c>
       <c r="C427">
         <v>1</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="1" t="s">
-        <v>427</v>
+      <c r="A428" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="B428">
-        <v>1</v>
+        <v>82478.553512950704</v>
       </c>
       <c r="C428">
         <v>1</v>
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="1" t="s">
-        <v>428</v>
+      <c r="A429" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>55993.402574451538</v>
       </c>
       <c r="C429">
         <v>1</v>

--- a/outputs-HGR-r202/test-p__Firmicutes_C_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-p__Firmicutes_C_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="431">
   <si>
     <t>Row</t>
   </si>
@@ -319,9 +319,6 @@
     <t>even_MAG-GUT33530.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT33566.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT33604.fa</t>
   </si>
   <si>
@@ -481,9 +478,6 @@
     <t>even_MAG-GUT47676.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT47840.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT47875.fa</t>
   </si>
   <si>
@@ -713,9 +707,6 @@
   </si>
   <si>
     <t>even_MAG-GUT58672.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT5920.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT59502.fa</t>
@@ -1336,7 +1327,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1346,18 +1337,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1367,7 +1354,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C432"/>
+  <dimension ref="A1:C429"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -1376,18 +1363,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>433</v>
+      <c r="B1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1398,7 +1385,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1409,7 +1396,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1420,7 +1407,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1431,7 +1418,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1442,7 +1429,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1453,7 +1440,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1464,7 +1451,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1475,7 +1462,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1486,7 +1473,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1497,7 +1484,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1508,7 +1495,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1519,7 +1506,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1530,7 +1517,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1541,7 +1528,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1552,7 +1539,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1563,7 +1550,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1574,7 +1561,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1585,7 +1572,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1596,7 +1583,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1607,7 +1594,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1618,7 +1605,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1629,7 +1616,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1640,7 +1627,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1651,7 +1638,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1662,7 +1649,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1673,7 +1660,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1684,7 +1671,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1695,7 +1682,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1706,7 +1693,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1717,7 +1704,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1728,7 +1715,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1739,7 +1726,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1750,7 +1737,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1761,7 +1748,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1772,7 +1759,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1783,7 +1770,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1794,7 +1781,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1805,7 +1792,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1816,7 +1803,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1827,7 +1814,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1838,7 +1825,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1849,7 +1836,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1860,7 +1847,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1871,7 +1858,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1882,7 +1869,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1893,7 +1880,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1904,7 +1891,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1915,7 +1902,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1926,7 +1913,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1937,7 +1924,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1948,7 +1935,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1959,7 +1946,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1970,7 +1957,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1981,7 +1968,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -1992,7 +1979,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2003,7 +1990,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2014,7 +2001,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2025,7 +2012,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2036,7 +2023,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2047,7 +2034,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2058,7 +2045,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2069,7 +2056,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2080,7 +2067,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -2091,7 +2078,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -2102,7 +2089,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -2113,7 +2100,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -2124,7 +2111,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -2135,7 +2122,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -2146,7 +2133,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -2157,7 +2144,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -2168,7 +2155,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -2179,7 +2166,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -2190,7 +2177,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -2201,7 +2188,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -2212,7 +2199,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -2223,7 +2210,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -2234,7 +2221,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -2245,7 +2232,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -2256,7 +2243,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -2267,7 +2254,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -2278,7 +2265,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -2289,7 +2276,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -2300,7 +2287,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -2311,7 +2298,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -2322,7 +2309,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -2333,7 +2320,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -2344,7 +2331,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -2355,7 +2342,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -2366,7 +2353,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -2377,7 +2364,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -2388,7 +2375,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -2399,7 +2386,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -2410,7 +2397,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -2421,7 +2408,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -2432,7 +2419,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -2443,7 +2430,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -2454,7 +2441,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -2465,7 +2452,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -2476,7 +2463,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -2487,8 +2474,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="s">
-        <v>102</v>
+      <c r="A102" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B102">
         <v>47377.698032362314</v>
@@ -2498,8 +2485,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="s">
-        <v>103</v>
+      <c r="A103" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B103">
         <v>47496.705382346889</v>
@@ -2509,8 +2496,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="s">
-        <v>104</v>
+      <c r="A104" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B104">
         <v>66779.247097852887</v>
@@ -2520,8 +2507,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="s">
-        <v>105</v>
+      <c r="A105" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B105">
         <v>37671.62470782132</v>
@@ -2531,8 +2518,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
-        <v>106</v>
+      <c r="A106" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B106">
         <v>37623.893615410227</v>
@@ -2542,8 +2529,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="s">
-        <v>107</v>
+      <c r="A107" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B107">
         <v>42831.968326419956</v>
@@ -2553,8 +2540,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
-        <v>108</v>
+      <c r="A108" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B108">
         <v>37623.893615410227</v>
@@ -2564,8 +2551,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="s">
-        <v>109</v>
+      <c r="A109" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B109">
         <v>38470.094806400084</v>
@@ -2575,8 +2562,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="s">
-        <v>110</v>
+      <c r="A110" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B110">
         <v>36597.171043799244</v>
@@ -2586,8 +2573,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="s">
-        <v>111</v>
+      <c r="A111" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B111">
         <v>100814.76466921954</v>
@@ -2597,8 +2584,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="s">
-        <v>112</v>
+      <c r="A112" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B112">
         <v>60944.05787001217</v>
@@ -2608,8 +2595,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="s">
-        <v>113</v>
+      <c r="A113" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B113">
         <v>74425.715559222081</v>
@@ -2619,8 +2606,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="s">
-        <v>114</v>
+      <c r="A114" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B114">
         <v>32958.109088007841</v>
@@ -2630,8 +2617,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="s">
-        <v>115</v>
+      <c r="A115" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B115">
         <v>67558.238976079301</v>
@@ -2641,8 +2628,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="s">
-        <v>116</v>
+      <c r="A116" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B116">
         <v>59224.066810971111</v>
@@ -2652,8 +2639,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="s">
-        <v>117</v>
+      <c r="A117" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B117">
         <v>45903.701018621665</v>
@@ -2663,8 +2650,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="s">
-        <v>118</v>
+      <c r="A118" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B118">
         <v>84227.214876323356</v>
@@ -2674,8 +2661,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="s">
-        <v>119</v>
+      <c r="A119" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B119">
         <v>61708.262758883255</v>
@@ -2685,8 +2672,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="s">
-        <v>120</v>
+      <c r="A120" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B120">
         <v>77848.465210132068</v>
@@ -2696,8 +2683,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="s">
-        <v>121</v>
+      <c r="A121" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B121">
         <v>35871.559656574071</v>
@@ -2707,8 +2694,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="s">
-        <v>122</v>
+      <c r="A122" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B122">
         <v>49851.199492937943</v>
@@ -2718,8 +2705,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="s">
-        <v>123</v>
+      <c r="A123" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B123">
         <v>46230.575387549456</v>
@@ -2729,8 +2716,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
-        <v>124</v>
+      <c r="A124" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B124">
         <v>44623.728001009105</v>
@@ -2740,8 +2727,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="s">
-        <v>125</v>
+      <c r="A125" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B125">
         <v>80936.097583170267</v>
@@ -2751,8 +2738,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="s">
-        <v>126</v>
+      <c r="A126" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B126">
         <v>74363.854947079759</v>
@@ -2762,8 +2749,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="s">
-        <v>127</v>
+      <c r="A127" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B127">
         <v>90662.448865045546</v>
@@ -2773,8 +2760,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="s">
-        <v>128</v>
+      <c r="A128" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B128">
         <v>61061.019849688193</v>
@@ -2784,8 +2771,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="s">
-        <v>129</v>
+      <c r="A129" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B129">
         <v>91370.608249378944</v>
@@ -2795,8 +2782,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="s">
-        <v>130</v>
+      <c r="A130" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B130">
         <v>85781.503569259512</v>
@@ -2806,8 +2793,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="s">
-        <v>131</v>
+      <c r="A131" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B131">
         <v>60746.822151104818</v>
@@ -2817,8 +2804,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="s">
-        <v>132</v>
+      <c r="A132" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B132">
         <v>74973.043973194654</v>
@@ -2828,8 +2815,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="s">
-        <v>133</v>
+      <c r="A133" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B133">
         <v>78323.369689267056</v>
@@ -2839,8 +2826,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="s">
-        <v>134</v>
+      <c r="A134" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B134">
         <v>100453.76826903422</v>
@@ -2850,8 +2837,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="s">
-        <v>135</v>
+      <c r="A135" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B135">
         <v>78926.333066059247</v>
@@ -2861,8 +2848,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="s">
-        <v>136</v>
+      <c r="A136" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B136">
         <v>73142.857755412522</v>
@@ -2872,8 +2859,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="s">
-        <v>137</v>
+      <c r="A137" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B137">
         <v>83058.423322028262</v>
@@ -2883,8 +2870,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="s">
-        <v>138</v>
+      <c r="A138" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B138">
         <v>101477.058855717</v>
@@ -2894,8 +2881,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="s">
-        <v>139</v>
+      <c r="A139" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B139">
         <v>75555.15151018351</v>
@@ -2905,8 +2892,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="s">
-        <v>140</v>
+      <c r="A140" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B140">
         <v>98853.950955201159</v>
@@ -2916,8 +2903,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="s">
-        <v>141</v>
+      <c r="A141" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B141">
         <v>76018.891102220034</v>
@@ -2927,8 +2914,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="s">
-        <v>142</v>
+      <c r="A142" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B142">
         <v>97756.286115872528</v>
@@ -2938,8 +2925,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="s">
-        <v>143</v>
+      <c r="A143" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B143">
         <v>85852.717544239116</v>
@@ -2949,8 +2936,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="s">
-        <v>144</v>
+      <c r="A144" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B144">
         <v>67303.985392080038</v>
@@ -2960,8 +2947,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="s">
-        <v>145</v>
+      <c r="A145" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B145">
         <v>56243.961110920631</v>
@@ -2971,8 +2958,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="s">
-        <v>146</v>
+      <c r="A146" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B146">
         <v>82595.25426064778</v>
@@ -2982,8 +2969,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="s">
-        <v>147</v>
+      <c r="A147" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B147">
         <v>84011.218743031874</v>
@@ -2993,8 +2980,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="s">
-        <v>148</v>
+      <c r="A148" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B148">
         <v>88300.781032437968</v>
@@ -3004,8 +2991,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="s">
-        <v>149</v>
+      <c r="A149" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B149">
         <v>58379.892557308907</v>
@@ -3015,8 +3002,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="s">
-        <v>150</v>
+      <c r="A150" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B150">
         <v>83604.236126050411</v>
@@ -3026,8 +3013,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="s">
-        <v>151</v>
+      <c r="A151" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B151">
         <v>82315.506282862669</v>
@@ -3037,8 +3024,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="s">
-        <v>152</v>
+      <c r="A152" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B152">
         <v>84348.786977742871</v>
@@ -3048,8 +3035,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="s">
-        <v>153</v>
+      <c r="A153" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B153">
         <v>93660.013470508828</v>
@@ -3059,8 +3046,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="s">
-        <v>154</v>
+      <c r="A154" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B154">
         <v>96150.428370955633</v>
@@ -3070,8 +3057,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="s">
-        <v>156</v>
+      <c r="A155" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B155">
         <v>78471.061782706136</v>
@@ -3081,8 +3068,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="s">
-        <v>157</v>
+      <c r="A156" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B156">
         <v>96354.611408780547</v>
@@ -3092,8 +3079,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="s">
-        <v>158</v>
+      <c r="A157" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B157">
         <v>80573.374285817088</v>
@@ -3103,8 +3090,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="s">
-        <v>159</v>
+      <c r="A158" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B158">
         <v>97503.486932907676</v>
@@ -3114,8 +3101,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="s">
-        <v>160</v>
+      <c r="A159" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B159">
         <v>56481.053232549399</v>
@@ -3125,8 +3112,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="s">
-        <v>161</v>
+      <c r="A160" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B160">
         <v>68972.139377233616</v>
@@ -3136,8 +3123,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="s">
-        <v>162</v>
+      <c r="A161" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B161">
         <v>75710.765602353844</v>
@@ -3147,8 +3134,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="s">
-        <v>163</v>
+      <c r="A162" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B162">
         <v>88724.542613319645</v>
@@ -3158,8 +3145,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="s">
-        <v>164</v>
+      <c r="A163" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B163">
         <v>80091.075926622783</v>
@@ -3169,8 +3156,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="s">
-        <v>165</v>
+      <c r="A164" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B164">
         <v>75197.443893275093</v>
@@ -3180,8 +3167,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="s">
-        <v>166</v>
+      <c r="A165" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B165">
         <v>62683.492019497004</v>
@@ -3191,8 +3178,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="s">
-        <v>167</v>
+      <c r="A166" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B166">
         <v>62698.014380067165</v>
@@ -3202,8 +3189,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="s">
-        <v>168</v>
+      <c r="A167" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B167">
         <v>78491.891294156128</v>
@@ -3213,8 +3200,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="s">
-        <v>169</v>
+      <c r="A168" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B168">
         <v>57271.515861269887</v>
@@ -3224,8 +3211,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="s">
-        <v>170</v>
+      <c r="A169" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="B169">
         <v>73134.450297408301</v>
@@ -3235,8 +3222,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="s">
-        <v>171</v>
+      <c r="A170" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B170">
         <v>82097.338672028432</v>
@@ -3246,8 +3233,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="s">
-        <v>172</v>
+      <c r="A171" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B171">
         <v>50715.472822433439</v>
@@ -3257,8 +3244,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="s">
-        <v>173</v>
+      <c r="A172" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B172">
         <v>86752.645386197502</v>
@@ -3268,8 +3255,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="s">
-        <v>174</v>
+      <c r="A173" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B173">
         <v>84014.770259599638</v>
@@ -3279,8 +3266,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="s">
-        <v>175</v>
+      <c r="A174" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B174">
         <v>84707.087168615108</v>
@@ -3290,8 +3277,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="s">
-        <v>176</v>
+      <c r="A175" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B175">
         <v>92685.512703651635</v>
@@ -3301,8 +3288,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="s">
-        <v>177</v>
+      <c r="A176" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B176">
         <v>67566.105647173215</v>
@@ -3312,8 +3299,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="s">
-        <v>178</v>
+      <c r="A177" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B177">
         <v>80900.220136728909</v>
@@ -3323,8 +3310,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="s">
-        <v>179</v>
+      <c r="A178" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B178">
         <v>68359.673513026879</v>
@@ -3334,8 +3321,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="s">
-        <v>180</v>
+      <c r="A179" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B179">
         <v>68636.277972034921</v>
@@ -3345,8 +3332,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="s">
-        <v>181</v>
+      <c r="A180" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B180">
         <v>69419.19179715222</v>
@@ -3356,8 +3343,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="s">
-        <v>182</v>
+      <c r="A181" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B181">
         <v>85841.873556854945</v>
@@ -3367,8 +3354,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="s">
-        <v>183</v>
+      <c r="A182" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B182">
         <v>58487.229832719779</v>
@@ -3378,8 +3365,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="s">
-        <v>184</v>
+      <c r="A183" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B183">
         <v>86891.587648800705</v>
@@ -3389,8 +3376,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="s">
-        <v>185</v>
+      <c r="A184" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="B184">
         <v>60298.279806488048</v>
@@ -3400,8 +3387,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="s">
-        <v>186</v>
+      <c r="A185" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B185">
         <v>74801.854766403107</v>
@@ -3411,8 +3398,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="s">
-        <v>187</v>
+      <c r="A186" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B186">
         <v>92410.119228294672</v>
@@ -3422,8 +3409,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="s">
-        <v>188</v>
+      <c r="A187" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B187">
         <v>63619.554084019386</v>
@@ -3433,8 +3420,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="s">
-        <v>189</v>
+      <c r="A188" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B188">
         <v>71328.536176782945</v>
@@ -3444,8 +3431,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="s">
-        <v>190</v>
+      <c r="A189" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B189">
         <v>91695.306727840085</v>
@@ -3455,8 +3442,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="3" t="s">
-        <v>191</v>
+      <c r="A190" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B190">
         <v>72851.848422821538</v>
@@ -3466,8 +3453,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="s">
-        <v>192</v>
+      <c r="A191" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B191">
         <v>75093.476356904823</v>
@@ -3477,8 +3464,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="s">
-        <v>193</v>
+      <c r="A192" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B192">
         <v>63687.873660289682</v>
@@ -3488,8 +3475,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="s">
-        <v>194</v>
+      <c r="A193" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B193">
         <v>74240.021351867326</v>
@@ -3499,8 +3486,8 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="s">
-        <v>195</v>
+      <c r="A194" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B194">
         <v>61903.984734718324</v>
@@ -3510,8 +3497,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="s">
-        <v>196</v>
+      <c r="A195" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B195">
         <v>92425.982798287791</v>
@@ -3521,8 +3508,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="s">
-        <v>197</v>
+      <c r="A196" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B196">
         <v>75370.08877187701</v>
@@ -3532,8 +3519,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="s">
-        <v>198</v>
+      <c r="A197" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B197">
         <v>91444.950175629303</v>
@@ -3543,8 +3530,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="s">
-        <v>199</v>
+      <c r="A198" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B198">
         <v>69068.932973700081</v>
@@ -3554,8 +3541,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="s">
-        <v>200</v>
+      <c r="A199" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B199">
         <v>87782.180833665203</v>
@@ -3565,8 +3552,8 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="s">
-        <v>201</v>
+      <c r="A200" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B200">
         <v>72626.219512679672</v>
@@ -3576,8 +3563,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="s">
-        <v>202</v>
+      <c r="A201" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B201">
         <v>75945.692468888083</v>
@@ -3587,8 +3574,8 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="s">
-        <v>203</v>
+      <c r="A202" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B202">
         <v>76768.987469674583</v>
@@ -3598,8 +3585,8 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="s">
-        <v>204</v>
+      <c r="A203" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B203">
         <v>58084.799304621731</v>
@@ -3609,8 +3596,8 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="s">
-        <v>205</v>
+      <c r="A204" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B204">
         <v>56256.225070015833</v>
@@ -3620,8 +3607,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="s">
-        <v>206</v>
+      <c r="A205" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B205">
         <v>77182.86613691847</v>
@@ -3631,8 +3618,8 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="s">
-        <v>207</v>
+      <c r="A206" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B206">
         <v>88052.559417874116</v>
@@ -3642,8 +3629,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="s">
-        <v>208</v>
+      <c r="A207" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B207">
         <v>98043.509870594949</v>
@@ -3653,8 +3640,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="s">
-        <v>209</v>
+      <c r="A208" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B208">
         <v>83134.729121587981</v>
@@ -3664,8 +3651,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="3" t="s">
-        <v>210</v>
+      <c r="A209" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B209">
         <v>83523.413326850423</v>
@@ -3675,8 +3662,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="s">
-        <v>211</v>
+      <c r="A210" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B210">
         <v>55340.189885422573</v>
@@ -3686,8 +3673,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="s">
-        <v>212</v>
+      <c r="A211" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B211">
         <v>82042.397856537689</v>
@@ -3697,8 +3684,8 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="s">
-        <v>213</v>
+      <c r="A212" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B212">
         <v>30558.075313312849</v>
@@ -3708,8 +3695,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="s">
-        <v>214</v>
+      <c r="A213" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B213">
         <v>69778.222622509566</v>
@@ -3719,8 +3706,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="s">
-        <v>215</v>
+      <c r="A214" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="B214">
         <v>61380.076573422004</v>
@@ -3730,8 +3717,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="s">
-        <v>216</v>
+      <c r="A215" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B215">
         <v>56548.23275339618</v>
@@ -3741,8 +3728,8 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="s">
-        <v>217</v>
+      <c r="A216" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="B216">
         <v>57456.346372062704</v>
@@ -3752,8 +3739,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="s">
-        <v>218</v>
+      <c r="A217" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B217">
         <v>85444.84281657364</v>
@@ -3763,8 +3750,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="s">
-        <v>219</v>
+      <c r="A218" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B218">
         <v>67494.609968227029</v>
@@ -3774,8 +3761,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="3" t="s">
-        <v>220</v>
+      <c r="A219" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B219">
         <v>74491.328114424803</v>
@@ -3785,8 +3772,8 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="s">
-        <v>221</v>
+      <c r="A220" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="B220">
         <v>53298.865815264275</v>
@@ -3796,8 +3783,8 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="s">
-        <v>222</v>
+      <c r="A221" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B221">
         <v>56548.23275339618</v>
@@ -3807,8 +3794,8 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="s">
-        <v>223</v>
+      <c r="A222" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B222">
         <v>60645.841392372065</v>
@@ -3818,8 +3805,8 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="3" t="s">
-        <v>224</v>
+      <c r="A223" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B223">
         <v>64680.51341980396</v>
@@ -3829,8 +3816,8 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="3" t="s">
-        <v>225</v>
+      <c r="A224" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B224">
         <v>73646.521186394064</v>
@@ -3840,8 +3827,8 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="s">
-        <v>226</v>
+      <c r="A225" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B225">
         <v>62810.557681025894</v>
@@ -3851,8 +3838,8 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="s">
-        <v>227</v>
+      <c r="A226" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B226">
         <v>37766.634109287566</v>
@@ -3862,8 +3849,8 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="3" t="s">
-        <v>228</v>
+      <c r="A227" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="B227">
         <v>59249.930398528726</v>
@@ -3873,8 +3860,8 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="3" t="s">
-        <v>229</v>
+      <c r="A228" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="B228">
         <v>68585.107322953074</v>
@@ -3884,8 +3871,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="s">
-        <v>230</v>
+      <c r="A229" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="B229">
         <v>78567.184081459738</v>
@@ -3895,8 +3882,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="s">
-        <v>231</v>
+      <c r="A230" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="B230">
         <v>69734.894353903554</v>
@@ -3906,8 +3893,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="s">
-        <v>232</v>
+      <c r="A231" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="B231">
         <v>87316.172112742439</v>
@@ -3917,8 +3904,8 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="3" t="s">
-        <v>234</v>
+      <c r="A232" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B232">
         <v>62937.351393942969</v>
@@ -3928,8 +3915,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="3" t="s">
-        <v>235</v>
+      <c r="A233" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B233">
         <v>64523.214150770815</v>
@@ -3939,8 +3926,8 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="3" t="s">
-        <v>236</v>
+      <c r="A234" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="B234">
         <v>87455.496448189049</v>
@@ -3950,8 +3937,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="3" t="s">
-        <v>237</v>
+      <c r="A235" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="B235">
         <v>48205.469243719315</v>
@@ -3961,8 +3948,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="3" t="s">
-        <v>238</v>
+      <c r="A236" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="B236">
         <v>69778.222622509566</v>
@@ -3972,8 +3959,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="s">
-        <v>239</v>
+      <c r="A237" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="B237">
         <v>55914.284733282562</v>
@@ -3983,8 +3970,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3" t="s">
-        <v>240</v>
+      <c r="A238" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="B238">
         <v>73425.901904763115</v>
@@ -3994,8 +3981,8 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="3" t="s">
-        <v>241</v>
+      <c r="A239" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="B239">
         <v>57504.737309553107</v>
@@ -4005,8 +3992,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="3" t="s">
-        <v>242</v>
+      <c r="A240" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B240">
         <v>84561.520445443632</v>
@@ -4016,8 +4003,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="3" t="s">
-        <v>243</v>
+      <c r="A241" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="B241">
         <v>71079.124863308418</v>
@@ -4027,8 +4014,8 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="3" t="s">
-        <v>244</v>
+      <c r="A242" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="B242">
         <v>93566.438543152428</v>
@@ -4038,8 +4025,8 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="s">
-        <v>245</v>
+      <c r="A243" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="B243">
         <v>78556.939238437641</v>
@@ -4049,8 +4036,8 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="s">
-        <v>246</v>
+      <c r="A244" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="B244">
         <v>55442.62096128214</v>
@@ -4060,8 +4047,8 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="s">
-        <v>247</v>
+      <c r="A245" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="B245">
         <v>83985.260182971077</v>
@@ -4071,8 +4058,8 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="3" t="s">
-        <v>248</v>
+      <c r="A246" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="B246">
         <v>73395.288618452541</v>
@@ -4082,8 +4069,8 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="s">
-        <v>249</v>
+      <c r="A247" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="B247">
         <v>79850.64258326008</v>
@@ -4093,8 +4080,8 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="3" t="s">
-        <v>250</v>
+      <c r="A248" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="B248">
         <v>55415.113275484968</v>
@@ -4104,8 +4091,8 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="s">
-        <v>251</v>
+      <c r="A249" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="B249">
         <v>83279.186011253434</v>
@@ -4115,8 +4102,8 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="s">
-        <v>252</v>
+      <c r="A250" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="B250">
         <v>52785.870587931771</v>
@@ -4126,8 +4113,8 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="s">
-        <v>253</v>
+      <c r="A251" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="B251">
         <v>75161.116913074467</v>
@@ -4137,8 +4124,8 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="3" t="s">
-        <v>254</v>
+      <c r="A252" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B252">
         <v>77562.404128059847</v>
@@ -4148,8 +4135,8 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="3" t="s">
-        <v>255</v>
+      <c r="A253" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="B253">
         <v>66482.72461704335</v>
@@ -4159,8 +4146,8 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="s">
-        <v>256</v>
+      <c r="A254" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="B254">
         <v>49820.232213549418</v>
@@ -4170,8 +4157,8 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3" t="s">
-        <v>257</v>
+      <c r="A255" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="B255">
         <v>56706.058151206889</v>
@@ -4181,8 +4168,8 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="3" t="s">
-        <v>258</v>
+      <c r="A256" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="B256">
         <v>74488.296555303794</v>
@@ -4192,8 +4179,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="3" t="s">
-        <v>259</v>
+      <c r="A257" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="B257">
         <v>80956.9331806025</v>
@@ -4203,8 +4190,8 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="3" t="s">
-        <v>260</v>
+      <c r="A258" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="B258">
         <v>76807.967244869636</v>
@@ -4214,8 +4201,8 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="3" t="s">
-        <v>261</v>
+      <c r="A259" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="B259">
         <v>76807.967244869636</v>
@@ -4225,8 +4212,8 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="3" t="s">
-        <v>262</v>
+      <c r="A260" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="B260">
         <v>37153.981532008635</v>
@@ -4236,8 +4223,8 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="3" t="s">
-        <v>263</v>
+      <c r="A261" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="B261">
         <v>47927.034352356379</v>
@@ -4247,8 +4234,8 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3" t="s">
-        <v>264</v>
+      <c r="A262" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="B262">
         <v>58020.287470948519</v>
@@ -4258,8 +4245,8 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="s">
-        <v>265</v>
+      <c r="A263" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="B263">
         <v>64536.600161501905</v>
@@ -4269,8 +4256,8 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="3" t="s">
-        <v>266</v>
+      <c r="A264" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B264">
         <v>73039.173978218445</v>
@@ -4280,8 +4267,8 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="3" t="s">
-        <v>267</v>
+      <c r="A265" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="B265">
         <v>92827.971703941948</v>
@@ -4291,8 +4278,8 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="3" t="s">
-        <v>268</v>
+      <c r="A266" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B266">
         <v>63829.116422645107</v>
@@ -4302,8 +4289,8 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="s">
-        <v>269</v>
+      <c r="A267" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="B267">
         <v>56941.850636928502</v>
@@ -4313,8 +4300,8 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="3" t="s">
-        <v>270</v>
+      <c r="A268" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="B268">
         <v>65418.041469561591</v>
@@ -4324,8 +4311,8 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3" t="s">
-        <v>271</v>
+      <c r="A269" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B269">
         <v>48224.638817408209</v>
@@ -4335,8 +4322,8 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="3" t="s">
-        <v>272</v>
+      <c r="A270" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="B270">
         <v>70806.754093698604</v>
@@ -4346,8 +4333,8 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="3" t="s">
-        <v>273</v>
+      <c r="A271" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="B271">
         <v>73857.270400680471</v>
@@ -4357,8 +4344,8 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="3" t="s">
-        <v>274</v>
+      <c r="A272" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B272">
         <v>87885.642908553971</v>
@@ -4368,8 +4355,8 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="3" t="s">
-        <v>275</v>
+      <c r="A273" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="B273">
         <v>63778.923746353714</v>
@@ -4379,8 +4366,8 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="3" t="s">
-        <v>276</v>
+      <c r="A274" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="B274">
         <v>80361.65073422798</v>
@@ -4390,8 +4377,8 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="3" t="s">
-        <v>277</v>
+      <c r="A275" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="B275">
         <v>54322.390502001494</v>
@@ -4401,8 +4388,8 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="3" t="s">
-        <v>278</v>
+      <c r="A276" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="B276">
         <v>77018.826700036152</v>
@@ -4412,8 +4399,8 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="3" t="s">
-        <v>279</v>
+      <c r="A277" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="B277">
         <v>68205.263301630373</v>
@@ -4423,8 +4410,8 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3" t="s">
-        <v>280</v>
+      <c r="A278" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="B278">
         <v>61538.780966948994</v>
@@ -4434,8 +4421,8 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3" t="s">
-        <v>281</v>
+      <c r="A279" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="B279">
         <v>61889.262217698779</v>
@@ -4445,8 +4432,8 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="3" t="s">
-        <v>282</v>
+      <c r="A280" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="B280">
         <v>69310.848688175654</v>
@@ -4456,8 +4443,8 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="3" t="s">
-        <v>283</v>
+      <c r="A281" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="B281">
         <v>70307.808736939565</v>
@@ -4467,8 +4454,8 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="3" t="s">
-        <v>284</v>
+      <c r="A282" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="B282">
         <v>78391.635189638619</v>
@@ -4478,8 +4465,8 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3" t="s">
-        <v>285</v>
+      <c r="A283" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="B283">
         <v>91157.745874864297</v>
@@ -4489,8 +4476,8 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3" t="s">
-        <v>286</v>
+      <c r="A284" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="B284">
         <v>39418.562968411396</v>
@@ -4500,8 +4487,8 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="3" t="s">
-        <v>287</v>
+      <c r="A285" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="B285">
         <v>42763.087712090026</v>
@@ -4511,8 +4498,8 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="3" t="s">
-        <v>288</v>
+      <c r="A286" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="B286">
         <v>38391.069696747698</v>
@@ -4522,8 +4509,8 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3" t="s">
-        <v>289</v>
+      <c r="A287" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="B287">
         <v>101967.02302072878</v>
@@ -4533,8 +4520,8 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="3" t="s">
-        <v>290</v>
+      <c r="A288" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="B288">
         <v>89890.576196013862</v>
@@ -4544,8 +4531,8 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="3" t="s">
-        <v>291</v>
+      <c r="A289" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="B289">
         <v>81810.966894231475</v>
@@ -4555,8 +4542,8 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="3" t="s">
-        <v>292</v>
+      <c r="A290" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="B290">
         <v>95928.297026495115</v>
@@ -4566,8 +4553,8 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="3" t="s">
-        <v>293</v>
+      <c r="A291" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="B291">
         <v>81810.966894231475</v>
@@ -4577,8 +4564,8 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="3" t="s">
-        <v>294</v>
+      <c r="A292" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="B292">
         <v>83153.650403532884</v>
@@ -4588,8 +4575,8 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="3" t="s">
-        <v>295</v>
+      <c r="A293" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B293">
         <v>93276.76740304452</v>
@@ -4599,8 +4586,8 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="3" t="s">
-        <v>296</v>
+      <c r="A294" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="B294">
         <v>82435.065997275553</v>
@@ -4610,8 +4597,8 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="3" t="s">
-        <v>297</v>
+      <c r="A295" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="B295">
         <v>83751.797871857882</v>
@@ -4621,8 +4608,8 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="3" t="s">
-        <v>298</v>
+      <c r="A296" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="B296">
         <v>77795.830421290098</v>
@@ -4632,8 +4619,8 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="3" t="s">
-        <v>299</v>
+      <c r="A297" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="B297">
         <v>93061.393011600245</v>
@@ -4643,8 +4630,8 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="3" t="s">
-        <v>300</v>
+      <c r="A298" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="B298">
         <v>76281.003868274711</v>
@@ -4654,8 +4641,8 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="3" t="s">
-        <v>301</v>
+      <c r="A299" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="B299">
         <v>57914.70065656201</v>
@@ -4665,8 +4652,8 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="3" t="s">
-        <v>302</v>
+      <c r="A300" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="B300">
         <v>70583.993858676258</v>
@@ -4676,8 +4663,8 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="3" t="s">
-        <v>303</v>
+      <c r="A301" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="B301">
         <v>91197.874792665694</v>
@@ -4687,8 +4674,8 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="3" t="s">
-        <v>304</v>
+      <c r="A302" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="B302">
         <v>73739.429943704032</v>
@@ -4698,8 +4685,8 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="3" t="s">
-        <v>305</v>
+      <c r="A303" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="B303">
         <v>49769.526593512041</v>
@@ -4709,8 +4696,8 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="3" t="s">
-        <v>306</v>
+      <c r="A304" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="B304">
         <v>83312.338511958878</v>
@@ -4720,8 +4707,8 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="3" t="s">
-        <v>307</v>
+      <c r="A305" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="B305">
         <v>70576.623375951749</v>
@@ -4731,8 +4718,8 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="3" t="s">
-        <v>308</v>
+      <c r="A306" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="B306">
         <v>77449.516665328207</v>
@@ -4742,8 +4729,8 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="3" t="s">
-        <v>309</v>
+      <c r="A307" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="B307">
         <v>64867.231331700314</v>
@@ -4753,8 +4740,8 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="3" t="s">
-        <v>310</v>
+      <c r="A308" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="B308">
         <v>81446.960619117381</v>
@@ -4764,8 +4751,8 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="3" t="s">
-        <v>311</v>
+      <c r="A309" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="B309">
         <v>79052.536807393117</v>
@@ -4775,8 +4762,8 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="3" t="s">
-        <v>312</v>
+      <c r="A310" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="B310">
         <v>62870.90689126683</v>
@@ -4786,8 +4773,8 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="3" t="s">
-        <v>313</v>
+      <c r="A311" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="B311">
         <v>39058.076643799577</v>
@@ -4797,8 +4784,8 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="3" t="s">
-        <v>314</v>
+      <c r="A312" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="B312">
         <v>84273.762260966047</v>
@@ -4808,8 +4795,8 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="3" t="s">
-        <v>315</v>
+      <c r="A313" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="B313">
         <v>41580.777905573195</v>
@@ -4819,8 +4806,8 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="3" t="s">
-        <v>316</v>
+      <c r="A314" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="B314">
         <v>77624.322204831115</v>
@@ -4830,8 +4817,8 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="3" t="s">
-        <v>317</v>
+      <c r="A315" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B315">
         <v>70657.647840401114</v>
@@ -4841,8 +4828,8 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="3" t="s">
-        <v>318</v>
+      <c r="A316" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="B316">
         <v>84934.540803973432</v>
@@ -4852,8 +4839,8 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="3" t="s">
-        <v>319</v>
+      <c r="A317" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="B317">
         <v>77387.460730985709</v>
@@ -4863,8 +4850,8 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="3" t="s">
-        <v>320</v>
+      <c r="A318" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="B318">
         <v>80882.375625775225</v>
@@ -4874,8 +4861,8 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="3" t="s">
-        <v>321</v>
+      <c r="A319" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="B319">
         <v>84934.540803973432</v>
@@ -4885,8 +4872,8 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="3" t="s">
-        <v>322</v>
+      <c r="A320" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="B320">
         <v>42961.385922540183</v>
@@ -4896,8 +4883,8 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="3" t="s">
-        <v>323</v>
+      <c r="A321" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="B321">
         <v>61929.486958257941</v>
@@ -4907,8 +4894,8 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="3" t="s">
-        <v>324</v>
+      <c r="A322" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="B322">
         <v>76291.189404790333</v>
@@ -4918,8 +4905,8 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="3" t="s">
-        <v>325</v>
+      <c r="A323" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="B323">
         <v>88467.914174572856</v>
@@ -4929,8 +4916,8 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="3" t="s">
-        <v>326</v>
+      <c r="A324" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="B324">
         <v>71738.139201299316</v>
@@ -4940,8 +4927,8 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="3" t="s">
-        <v>327</v>
+      <c r="A325" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="B325">
         <v>66923.436514691813</v>
@@ -4951,8 +4938,8 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="3" t="s">
-        <v>328</v>
+      <c r="A326" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="B326">
         <v>66923.436514691813</v>
@@ -4962,8 +4949,8 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="3" t="s">
-        <v>329</v>
+      <c r="A327" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="B327">
         <v>68305.715217047196</v>
@@ -4973,8 +4960,8 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="3" t="s">
-        <v>330</v>
+      <c r="A328" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="B328">
         <v>69766.610172687535</v>
@@ -4984,8 +4971,8 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="3" t="s">
-        <v>331</v>
+      <c r="A329" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="B329">
         <v>63882.570641655504</v>
@@ -4995,8 +4982,8 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="3" t="s">
-        <v>332</v>
+      <c r="A330" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="B330">
         <v>48670.870106897855</v>
@@ -5006,8 +4993,8 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="3" t="s">
-        <v>333</v>
+      <c r="A331" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="B331">
         <v>76126.130250270362</v>
@@ -5017,8 +5004,8 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="3" t="s">
-        <v>334</v>
+      <c r="A332" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="B332">
         <v>87196.457183341176</v>
@@ -5028,8 +5015,8 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="3" t="s">
-        <v>335</v>
+      <c r="A333" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="B333">
         <v>58770.87667585809</v>
@@ -5039,8 +5026,8 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="3" t="s">
-        <v>336</v>
+      <c r="A334" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="B334">
         <v>61050.655656266506</v>
@@ -5050,8 +5037,8 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="3" t="s">
-        <v>337</v>
+      <c r="A335" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="B335">
         <v>54772.958261414431</v>
@@ -5061,8 +5048,8 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="3" t="s">
-        <v>338</v>
+      <c r="A336" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="B336">
         <v>69697.462223884184</v>
@@ -5072,8 +5059,8 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="3" t="s">
-        <v>339</v>
+      <c r="A337" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="B337">
         <v>44682.25546545726</v>
@@ -5083,8 +5070,8 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="3" t="s">
-        <v>340</v>
+      <c r="A338" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="B338">
         <v>59526.885179346413</v>
@@ -5094,8 +5081,8 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="3" t="s">
-        <v>341</v>
+      <c r="A339" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="B339">
         <v>45372.971418479618</v>
@@ -5105,8 +5092,8 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="3" t="s">
-        <v>342</v>
+      <c r="A340" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="B340">
         <v>52197.208795355822</v>
@@ -5116,8 +5103,8 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="3" t="s">
-        <v>343</v>
+      <c r="A341" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="B341">
         <v>49313.744245806636</v>
@@ -5127,8 +5114,8 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="3" t="s">
-        <v>344</v>
+      <c r="A342" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="B342">
         <v>50807.508649413503</v>
@@ -5138,8 +5125,8 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="3" t="s">
-        <v>345</v>
+      <c r="A343" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="B343">
         <v>39532.079327432759</v>
@@ -5149,8 +5136,8 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="3" t="s">
-        <v>346</v>
+      <c r="A344" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="B344">
         <v>78282.936042391506</v>
@@ -5160,8 +5147,8 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="3" t="s">
-        <v>347</v>
+      <c r="A345" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="B345">
         <v>50314.49400158471</v>
@@ -5171,8 +5158,8 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="3" t="s">
-        <v>348</v>
+      <c r="A346" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="B346">
         <v>83243.326206197948</v>
@@ -5182,8 +5169,8 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="3" t="s">
-        <v>349</v>
+      <c r="A347" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="B347">
         <v>57432.185936655791</v>
@@ -5193,8 +5180,8 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="3" t="s">
-        <v>350</v>
+      <c r="A348" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="B348">
         <v>52351.026713261948</v>
@@ -5204,8 +5191,8 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="3" t="s">
-        <v>351</v>
+      <c r="A349" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="B349">
         <v>50224.715774921162</v>
@@ -5215,8 +5202,8 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="3" t="s">
-        <v>352</v>
+      <c r="A350" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="B350">
         <v>58957.011969116982</v>
@@ -5226,8 +5213,8 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="3" t="s">
-        <v>353</v>
+      <c r="A351" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="B351">
         <v>53470.069563818717</v>
@@ -5237,8 +5224,8 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="3" t="s">
-        <v>354</v>
+      <c r="A352" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="B352">
         <v>39964.694220585108</v>
@@ -5248,8 +5235,8 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="3" t="s">
-        <v>355</v>
+      <c r="A353" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="B353">
         <v>56636.270192925746</v>
@@ -5259,8 +5246,8 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="3" t="s">
-        <v>356</v>
+      <c r="A354" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="B354">
         <v>42444.536661099206</v>
@@ -5270,8 +5257,8 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="3" t="s">
-        <v>357</v>
+      <c r="A355" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="B355">
         <v>40433.336318845642</v>
@@ -5281,8 +5268,8 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="3" t="s">
-        <v>358</v>
+      <c r="A356" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="B356">
         <v>57432.185936655791</v>
@@ -5292,8 +5279,8 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="3" t="s">
-        <v>359</v>
+      <c r="A357" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="B357">
         <v>47042.252736557813</v>
@@ -5303,8 +5290,8 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="3" t="s">
-        <v>360</v>
+      <c r="A358" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="B358">
         <v>61346.331733577565</v>
@@ -5314,8 +5301,8 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="3" t="s">
-        <v>361</v>
+      <c r="A359" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="B359">
         <v>82792.60931118943</v>
@@ -5325,8 +5312,8 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="3" t="s">
-        <v>362</v>
+      <c r="A360" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="B360">
         <v>61346.331733577565</v>
@@ -5336,8 +5323,8 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="3" t="s">
-        <v>363</v>
+      <c r="A361" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="B361">
         <v>36794.072963042781</v>
@@ -5347,8 +5334,8 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="3" t="s">
-        <v>364</v>
+      <c r="A362" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="B362">
         <v>60932.876293420442</v>
@@ -5358,8 +5345,8 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="3" t="s">
-        <v>365</v>
+      <c r="A363" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="B363">
         <v>61346.331733577565</v>
@@ -5369,8 +5356,8 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="3" t="s">
-        <v>366</v>
+      <c r="A364" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="B364">
         <v>92883.985996319025</v>
@@ -5380,8 +5367,8 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="3" t="s">
-        <v>367</v>
+      <c r="A365" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="B365">
         <v>64139.262566420512</v>
@@ -5391,8 +5378,8 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="3" t="s">
-        <v>368</v>
+      <c r="A366" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="B366">
         <v>85824.704376464142</v>
@@ -5402,8 +5389,8 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="3" t="s">
-        <v>369</v>
+      <c r="A367" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="B367">
         <v>35619.777393921206</v>
@@ -5413,8 +5400,8 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="3" t="s">
-        <v>370</v>
+      <c r="A368" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="B368">
         <v>51708.192564429613</v>
@@ -5424,8 +5411,8 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="3" t="s">
-        <v>371</v>
+      <c r="A369" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="B369">
         <v>61346.331733577565</v>
@@ -5435,8 +5422,8 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="3" t="s">
-        <v>372</v>
+      <c r="A370" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="B370">
         <v>85824.704376464142</v>
@@ -5446,8 +5433,8 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="3" t="s">
-        <v>373</v>
+      <c r="A371" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="B371">
         <v>79896.808117691966</v>
@@ -5457,8 +5444,8 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="3" t="s">
-        <v>374</v>
+      <c r="A372" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="B372">
         <v>58541.623936944481</v>
@@ -5468,8 +5455,8 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="3" t="s">
-        <v>375</v>
+      <c r="A373" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="B373">
         <v>48147.918817012964</v>
@@ -5479,8 +5466,8 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="3" t="s">
-        <v>376</v>
+      <c r="A374" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="B374">
         <v>78338.394280285167</v>
@@ -5490,8 +5477,8 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="3" t="s">
-        <v>377</v>
+      <c r="A375" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B375">
         <v>61346.331733577565</v>
@@ -5501,8 +5488,8 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="3" t="s">
-        <v>378</v>
+      <c r="A376" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="B376">
         <v>60184.798488136745</v>
@@ -5512,8 +5499,8 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="3" t="s">
-        <v>379</v>
+      <c r="A377" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="B377">
         <v>61263.645271102127</v>
@@ -5523,8 +5510,8 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="3" t="s">
-        <v>380</v>
+      <c r="A378" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="B378">
         <v>91497.360891895863</v>
@@ -5534,8 +5521,8 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="3" t="s">
-        <v>381</v>
+      <c r="A379" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="B379">
         <v>60184.798488136745</v>
@@ -5545,8 +5532,8 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="3" t="s">
-        <v>382</v>
+      <c r="A380" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="B380">
         <v>82284.568510135083</v>
@@ -5556,8 +5543,8 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="3" t="s">
-        <v>383</v>
+      <c r="A381" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="B381">
         <v>61346.331733577565</v>
@@ -5567,8 +5554,8 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="3" t="s">
-        <v>384</v>
+      <c r="A382" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="B382">
         <v>61346.331733577565</v>
@@ -5578,8 +5565,8 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="3" t="s">
-        <v>385</v>
+      <c r="A383" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="B383">
         <v>83942.59179733276</v>
@@ -5589,8 +5576,8 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="3" t="s">
-        <v>386</v>
+      <c r="A384" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="B384">
         <v>82792.60931118943</v>
@@ -5600,8 +5587,8 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="3" t="s">
-        <v>387</v>
+      <c r="A385" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="B385">
         <v>64139.262566420512</v>
@@ -5611,8 +5598,8 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="3" t="s">
-        <v>388</v>
+      <c r="A386" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="B386">
         <v>54722.055022782777</v>
@@ -5622,8 +5609,8 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="3" t="s">
-        <v>389</v>
+      <c r="A387" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="B387">
         <v>96362.851599208618</v>
@@ -5633,8 +5620,8 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="3" t="s">
-        <v>390</v>
+      <c r="A388" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="B388">
         <v>60184.798488136745</v>
@@ -5644,8 +5631,8 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="3" t="s">
-        <v>391</v>
+      <c r="A389" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="B389">
         <v>83991.973964203367</v>
@@ -5655,8 +5642,8 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="3" t="s">
-        <v>392</v>
+      <c r="A390" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="B390">
         <v>55365.836469892922</v>
@@ -5666,8 +5653,8 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="3" t="s">
-        <v>393</v>
+      <c r="A391" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="B391">
         <v>48147.918817012964</v>
@@ -5677,8 +5664,8 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="3" t="s">
-        <v>394</v>
+      <c r="A392" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="B392">
         <v>61346.331733577565</v>
@@ -5688,8 +5675,8 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="3" t="s">
-        <v>395</v>
+      <c r="A393" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="B393">
         <v>60757.480142281434</v>
@@ -5699,8 +5686,8 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="3" t="s">
-        <v>396</v>
+      <c r="A394" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B394">
         <v>76491.302886420017</v>
@@ -5710,8 +5697,8 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="3" t="s">
-        <v>397</v>
+      <c r="A395" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="B395">
         <v>53278.131883964597</v>
@@ -5721,8 +5708,8 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="3" t="s">
-        <v>398</v>
+      <c r="A396" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B396">
         <v>60184.798488136745</v>
@@ -5732,8 +5719,8 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="3" t="s">
-        <v>399</v>
+      <c r="A397" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="B397">
         <v>85824.704376464142</v>
@@ -5743,8 +5730,8 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="3" t="s">
-        <v>400</v>
+      <c r="A398" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="B398">
         <v>61346.331733577565</v>
@@ -5754,8 +5741,8 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="3" t="s">
-        <v>401</v>
+      <c r="A399" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="B399">
         <v>85824.704376464142</v>
@@ -5765,8 +5752,8 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="3" t="s">
-        <v>402</v>
+      <c r="A400" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="B400">
         <v>90698.779187766355</v>
@@ -5776,8 +5763,8 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="3" t="s">
-        <v>403</v>
+      <c r="A401" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="B401">
         <v>60184.798488136745</v>
@@ -5787,8 +5774,8 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="3" t="s">
-        <v>404</v>
+      <c r="A402" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="B402">
         <v>85824.704376464142</v>
@@ -5798,8 +5785,8 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="3" t="s">
-        <v>405</v>
+      <c r="A403" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="B403">
         <v>61346.331733577565</v>
@@ -5809,8 +5796,8 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="3" t="s">
-        <v>406</v>
+      <c r="A404" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="B404">
         <v>85985.419394236553</v>
@@ -5820,8 +5807,8 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="3" t="s">
-        <v>407</v>
+      <c r="A405" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="B405">
         <v>61346.331733577565</v>
@@ -5831,8 +5818,8 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="3" t="s">
-        <v>408</v>
+      <c r="A406" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="B406">
         <v>67559.590735136677</v>
@@ -5842,8 +5829,8 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="3" t="s">
-        <v>409</v>
+      <c r="A407" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="B407">
         <v>72743.929664867333</v>
@@ -5853,8 +5840,8 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="3" t="s">
-        <v>410</v>
+      <c r="A408" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="B408">
         <v>83672.352667571002</v>
@@ -5864,8 +5851,8 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="3" t="s">
-        <v>411</v>
+      <c r="A409" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="B409">
         <v>83402.301823822068</v>
@@ -5875,8 +5862,8 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="3" t="s">
-        <v>412</v>
+      <c r="A410" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="B410">
         <v>66040.182415349846</v>
@@ -5886,8 +5873,8 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="3" t="s">
-        <v>413</v>
+      <c r="A411" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="B411">
         <v>84374.624920481889</v>
@@ -5897,8 +5884,8 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="3" t="s">
-        <v>414</v>
+      <c r="A412" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="B412">
         <v>87831.179650024336</v>
@@ -5908,8 +5895,8 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="3" t="s">
-        <v>415</v>
+      <c r="A413" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="B413">
         <v>86709.973422027164</v>
@@ -5919,8 +5906,8 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="3" t="s">
-        <v>416</v>
+      <c r="A414" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="B414">
         <v>67780.737610369732</v>
@@ -5930,8 +5917,8 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="3" t="s">
-        <v>417</v>
+      <c r="A415" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="B415">
         <v>96241.505716468135</v>
@@ -5941,8 +5928,8 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="3" t="s">
-        <v>418</v>
+      <c r="A416" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="B416">
         <v>81914.445420890537</v>
@@ -5952,8 +5939,8 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="3" t="s">
-        <v>419</v>
+      <c r="A417" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="B417">
         <v>79421.245219372635</v>
@@ -5963,8 +5950,8 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="3" t="s">
-        <v>420</v>
+      <c r="A418" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="B418">
         <v>77982.450658963411</v>
@@ -5974,8 +5961,8 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="3" t="s">
-        <v>421</v>
+      <c r="A419" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="B419">
         <v>93784.923737146426</v>
@@ -5985,8 +5972,8 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="3" t="s">
-        <v>422</v>
+      <c r="A420" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="B420">
         <v>74773.898003271999</v>
@@ -5996,8 +5983,8 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="3" t="s">
-        <v>423</v>
+      <c r="A421" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="B421">
         <v>94290.210512042511</v>
@@ -6007,8 +5994,8 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="3" t="s">
-        <v>424</v>
+      <c r="A422" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="B422">
         <v>83783.011984103112</v>
@@ -6018,8 +6005,8 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="3" t="s">
-        <v>425</v>
+      <c r="A423" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="B423">
         <v>97537.044073100493</v>
@@ -6029,8 +6016,8 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="3" t="s">
-        <v>426</v>
+      <c r="A424" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="B424">
         <v>92459.435931892294</v>
@@ -6040,8 +6027,8 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="3" t="s">
-        <v>427</v>
+      <c r="A425" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="B425">
         <v>99420.934705392079</v>
@@ -6051,8 +6038,8 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="3" t="s">
-        <v>428</v>
+      <c r="A426" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="B426">
         <v>92177.167706188819</v>
@@ -6062,8 +6049,8 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="3" t="s">
-        <v>429</v>
+      <c r="A427" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="B427">
         <v>96777.602432974163</v>
@@ -6073,8 +6060,8 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="3" t="s">
-        <v>430</v>
+      <c r="A428" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="B428">
         <v>82478.553512950704</v>
@@ -6084,46 +6071,13 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="3" t="s">
-        <v>431</v>
+      <c r="A429" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="B429">
         <v>55993.402574451538</v>
       </c>
       <c r="C429">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B430">
-        <v>1</v>
-      </c>
-      <c r="C430">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B431">
-        <v>1</v>
-      </c>
-      <c r="C431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B432">
-        <v>1</v>
-      </c>
-      <c r="C432">
         <v>1</v>
       </c>
     </row>

--- a/outputs-HGR-r202/test-p__Firmicutes_C_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-p__Firmicutes_C_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>Row</t>
   </si>
@@ -22,21 +22,42 @@
     <t>even_MAG-GUT1018.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT10270.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT10346.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT10398.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1049.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT1050.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT10593.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT10625.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT11020.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT11036.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT11210.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT11332.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT11435.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1198.fa</t>
   </si>
   <si>
@@ -55,6 +76,9 @@
     <t>even_MAG-GUT1232.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13045.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT13227.fa</t>
   </si>
   <si>
@@ -88,6 +112,9 @@
     <t>even_MAG-GUT1470.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT14741.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT15061.fa</t>
   </si>
   <si>
@@ -106,6 +133,9 @@
     <t>even_MAG-GUT15625.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT15742.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT15797.fa</t>
   </si>
   <si>
@@ -118,18 +148,27 @@
     <t>even_MAG-GUT16712.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT1677.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT17170.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT17254.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT17255.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT17401.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT17473.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT17515.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT17664.fa</t>
   </si>
   <si>
@@ -175,6 +214,9 @@
     <t>even_MAG-GUT19990.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT20287.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT20294.fa</t>
   </si>
   <si>
@@ -187,6 +229,12 @@
     <t>even_MAG-GUT2053.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT20540.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT20603.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT2061.fa</t>
   </si>
   <si>
@@ -205,6 +253,9 @@
     <t>even_MAG-GUT21682.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT2203.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT23387.fa</t>
   </si>
   <si>
@@ -214,15 +265,24 @@
     <t>even_MAG-GUT23754.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT24052.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT24126.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT25048.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT25075.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT25223.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT25340.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT25590.fa</t>
   </si>
   <si>
@@ -232,6 +292,18 @@
     <t>even_MAG-GUT2865.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT29189.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29214.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29221.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29476.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT29587.fa</t>
   </si>
   <si>
@@ -268,6 +340,9 @@
     <t>even_MAG-GUT32106.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT32691.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT33511.fa</t>
   </si>
   <si>
@@ -277,6 +352,9 @@
     <t>even_MAG-GUT33604.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT33657.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT3377.fa</t>
   </si>
   <si>
@@ -328,6 +406,9 @@
     <t>even_MAG-GUT37689.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT37976.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT38016.fa</t>
   </si>
   <si>
@@ -343,21 +424,33 @@
     <t>even_MAG-GUT42358.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43152.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT43155.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT43216.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43233.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT43248.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43329.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT43570.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT43698.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43835.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT44000.fa</t>
   </si>
   <si>
@@ -388,6 +481,9 @@
     <t>even_MAG-GUT45776.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT45903.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT46165.fa</t>
   </si>
   <si>
@@ -424,6 +520,9 @@
     <t>even_MAG-GUT47840.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT47875.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT47922.fa</t>
   </si>
   <si>
@@ -478,6 +577,9 @@
     <t>even_MAG-GUT48943.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT48949.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT48957.fa</t>
   </si>
   <si>
@@ -583,57 +685,183 @@
     <t>even_MAG-GUT51926.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT51928.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT5199.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT5341.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT54583.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT55383.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT56559.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT56570.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT56604.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT5676.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT5687.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57066.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT57069.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57190.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57346.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57398.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57498.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57542.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57592.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT57726.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT57765.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57771.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57988.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58133.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58310.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58672.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59502.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59576.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT5959.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT59593.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT59626.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60077.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60123.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60157.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60320.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60370.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60466.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60605.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT60756.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT60882.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60999.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61376.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61623.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61634.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT61658.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61708.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT61749.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT61937.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62054.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62117.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT62119.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT62393.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT62444.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62509.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62666.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT64345.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT64513.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT66378.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT66382.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6679.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT66953.fa</t>
   </si>
   <si>
@@ -697,6 +925,15 @@
     <t>even_MAG-GUT69551.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT69771.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7031.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7040.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT7088.fa</t>
   </si>
   <si>
@@ -733,27 +970,117 @@
     <t>even_MAG-GUT7210.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT72119.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT72127.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT7229.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT7247.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT73491.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT74329.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT74380.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT75402.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT75430.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7546.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT75522.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79350.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80385.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT80453.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80718.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80771.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80816.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT81523.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT81679.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81926.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT81946.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT81987.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82039.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82105.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82160.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82436.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82468.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82509.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82562.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82635.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82654.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82703.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82738.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82744.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT84598.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT84613.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT85104.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT85904.fa</t>
   </si>
   <si>
@@ -763,6 +1090,9 @@
     <t>even_MAG-GUT86853.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT86870.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT86935.fa</t>
   </si>
   <si>
@@ -775,15 +1105,27 @@
     <t>even_MAG-GUT87358.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT87479.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87575.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT87793.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT87821.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT87833.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT87873.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT88081.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT88255.fa</t>
   </si>
   <si>
@@ -799,75 +1141,165 @@
     <t>even_MAG-GUT88626.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT88680.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT88854.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT88891.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT88995.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT89009.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT89180.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT89205.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT89206.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89239.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89279.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89290.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT89291.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT89315.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT89318.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT89323.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT89344.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89353.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT89356.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT89364.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT89416.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89571.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT89717.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT89719.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89868.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89896.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90076.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90087.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90108.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90109.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90165.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90168.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT90190.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90191.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90290.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90292.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90323.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90367.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90479.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90502.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90506.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90600.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT90634.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90686.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90699.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90947.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90976.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90977.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT91033.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT91042.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT91117.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT91118.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT91136.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT91137.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT91276.fa</t>
   </si>
   <si>
@@ -922,7 +1354,22 @@
     <t>even_MAG-GUT92091.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT9303.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9316.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9364.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9376.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT956.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9659.fa</t>
   </si>
   <si>
     <t>1-c__Negativicutes</t>
@@ -976,7 +1423,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C303"/>
+  <dimension ref="A1:C452"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -989,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>452</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>304</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
@@ -1011,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>43548.991552605294</v>
+        <v>67583.379576823747</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1022,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>87288.705098586142</v>
+        <v>43548.991552605294</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1033,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>80574.677556956958</v>
+        <v>76992.495430206836</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1044,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>81429.302320699295</v>
+        <v>87288.705098586142</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1055,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>19879.362107454654</v>
+        <v>80574.677556956958</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1066,7 +1513,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>84101.875134643706</v>
+        <v>92805.524277502118</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1077,7 +1524,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>75108.200223547625</v>
+        <v>45444.473239653526</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1088,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>75108.200223547625</v>
+        <v>81429.302320699295</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1099,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>48046.822349015085</v>
+        <v>19879.362107454654</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1110,7 +1557,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>75108.200223547625</v>
+        <v>93087.102503242757</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1121,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>79776.206237429506</v>
+        <v>74961.51844755662</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1132,7 +1579,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>41607.46667613028</v>
+        <v>44149.243167694658</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1143,7 +1590,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>86962.338645226337</v>
+        <v>84101.875134643706</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1154,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>49327.500611775627</v>
+        <v>75108.200223547625</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1165,7 +1612,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>79484.202213344775</v>
+        <v>75108.200223547625</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1176,7 +1623,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>41162.662945330449</v>
+        <v>48046.822349015085</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1187,7 +1634,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>77996.004812202111</v>
+        <v>75108.200223547625</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1198,7 +1645,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>25467.450515145432</v>
+        <v>79776.206237429506</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1209,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>69999.936857029083</v>
+        <v>62837.864262718838</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1220,7 +1667,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>85711.900636234088</v>
+        <v>41607.46667613028</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1231,7 +1678,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>31020.467512896717</v>
+        <v>86962.338645226337</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1242,7 +1689,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>92086.503888010469</v>
+        <v>49327.500611775627</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1253,7 +1700,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>42638.320639447149</v>
+        <v>79484.202213344775</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1264,7 +1711,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>41462.029289226819</v>
+        <v>41162.662945330449</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1275,7 +1722,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>41780.044003433301</v>
+        <v>77996.004812202111</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1286,7 +1733,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>80362.982961482849</v>
+        <v>25467.450515145432</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1297,7 +1744,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>82046.891447504895</v>
+        <v>69999.936857029083</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1308,7 +1755,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>11328.233300307009</v>
+        <v>85711.900636234088</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1319,7 +1766,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>80917.958281850777</v>
+        <v>31020.467512896717</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1330,7 +1777,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>56670.75383407218</v>
+        <v>92086.503888010469</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1341,7 +1788,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>36224.631966904752</v>
+        <v>62837.864262718838</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1352,7 +1799,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>62285.137383378213</v>
+        <v>42638.320639447149</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1363,7 +1810,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>87848.705433964074</v>
+        <v>41462.029289226819</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1374,7 +1821,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>44974.535057950256</v>
+        <v>41780.044003433301</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1385,7 +1832,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>39011.771943120388</v>
+        <v>80362.982961482849</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1396,7 +1843,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>76338.750451813583</v>
+        <v>82046.891447504895</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1407,7 +1854,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>74924.290232484447</v>
+        <v>11328.233300307009</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1418,7 +1865,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>98831.916458592488</v>
+        <v>50511.808735435174</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1429,7 +1876,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>18412.572305053764</v>
+        <v>80917.958281850777</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1440,7 +1887,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>15440.937960487172</v>
+        <v>56670.75383407218</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1451,7 +1898,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>48346.839314542522</v>
+        <v>36224.631966904752</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1462,7 +1909,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>29462.586466780722</v>
+        <v>62285.137383378213</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1473,7 +1920,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>93064.062107859936</v>
+        <v>62326.98817688429</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1484,7 +1931,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>45099.515962780119</v>
+        <v>87848.705433964074</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1495,7 +1942,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>47096.840087489065</v>
+        <v>44974.535057950256</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1506,7 +1953,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>43619.699697785109</v>
+        <v>83801.329178007742</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1517,7 +1964,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>79295.407203809315</v>
+        <v>39011.771943120388</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1528,7 +1975,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>41108.605999086503</v>
+        <v>76338.750451813583</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1539,7 +1986,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>43735.620813240792</v>
+        <v>73051.976246701335</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1550,7 +1997,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>73753.272304208396</v>
+        <v>74924.290232484447</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1561,7 +2008,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>48863.660018942188</v>
+        <v>98831.916458592488</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1572,7 +2019,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>41815.300816562405</v>
+        <v>18412.572305053764</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1583,7 +2030,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>84700.482154871075</v>
+        <v>15440.937960487172</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1594,7 +2041,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>40919.800413075543</v>
+        <v>48346.839314542522</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1605,7 +2052,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>67904.881798809816</v>
+        <v>29462.586466780722</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1616,7 +2063,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>63202.801167516795</v>
+        <v>93064.062107859936</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1627,7 +2074,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>27747.367802878714</v>
+        <v>45099.515962780119</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1638,7 +2085,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>74444.414897041992</v>
+        <v>47096.840087489065</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1649,7 +2096,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>80531.396989307454</v>
+        <v>43619.699697785109</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1660,7 +2107,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>51363.700001543853</v>
+        <v>79295.407203809315</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1671,7 +2118,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>71608.308507057285</v>
+        <v>41108.605999086503</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1682,7 +2129,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>29165.918186692765</v>
+        <v>43735.620813240792</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1693,7 +2140,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>88366.930807167053</v>
+        <v>73753.272304208396</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1704,7 +2151,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>49152.309527321719</v>
+        <v>48863.660018942188</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1715,7 +2162,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>46581.974004538351</v>
+        <v>76536.421763363949</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1726,7 +2173,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>16625.15841469997</v>
+        <v>41815.300816562405</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1737,7 +2184,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>29657.605983525809</v>
+        <v>84700.482154871075</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1748,7 +2195,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>59156.933580174795</v>
+        <v>40919.800413075543</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1759,7 +2206,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>29046.492554583278</v>
+        <v>67904.881798809816</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1770,7 +2217,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>22403.442714409113</v>
+        <v>61639.623376740303</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1781,7 +2228,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>35826.465137287028</v>
+        <v>67211.857547208012</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1792,7 +2239,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>61432.990038660151</v>
+        <v>63202.801167516795</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1803,7 +2250,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>50172.627722121993</v>
+        <v>27747.367802878714</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1814,7 +2261,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>10882.104382453723</v>
+        <v>74444.414897041992</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1825,7 +2272,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>43378.44871272461</v>
+        <v>80531.396989307454</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1836,7 +2283,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>83116.923065841518</v>
+        <v>51363.700001543853</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1847,7 +2294,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>63059.768014095316</v>
+        <v>71608.308507057285</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1858,7 +2305,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>71955.925933007296</v>
+        <v>74611.491747145032</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1869,7 +2316,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>56271.804204263957</v>
+        <v>29165.918186692765</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1880,7 +2327,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>36090.433412810715</v>
+        <v>88366.930807167053</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1891,7 +2338,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>43350.414426379546</v>
+        <v>49152.309527321719</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1902,7 +2349,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>61090.85922821796</v>
+        <v>70217.892250809353</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1913,7 +2360,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>42059.262904550415</v>
+        <v>46581.974004538351</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1924,7 +2371,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>38219.800320298717</v>
+        <v>61206.882339967196</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1935,7 +2382,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>47377.698032362314</v>
+        <v>16625.15841469997</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1946,7 +2393,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>66779.247097852887</v>
+        <v>29657.605983525809</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1957,7 +2404,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>37671.62470782132</v>
+        <v>65674.019490162551</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1968,7 +2415,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>37623.893615410227</v>
+        <v>59156.933580174795</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1979,7 +2426,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>42831.968326419956</v>
+        <v>29046.492554583278</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1990,7 +2437,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>37623.893615410227</v>
+        <v>22403.442714409113</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -2001,7 +2448,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>38470.094806400084</v>
+        <v>57640.080371918724</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2012,7 +2459,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>36597.171043799244</v>
+        <v>60233.029722428386</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -2023,7 +2470,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>100814.76466921954</v>
+        <v>57474.259208245188</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -2034,7 +2481,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>33429.256232879707</v>
+        <v>79737.168493377452</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2045,7 +2492,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>60944.05787001217</v>
+        <v>35826.465137287028</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2056,7 +2503,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>74425.715559222081</v>
+        <v>61432.990038660151</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2067,7 +2514,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>32958.109088007841</v>
+        <v>50172.627722121993</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -2078,7 +2525,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>67558.238976079301</v>
+        <v>10882.104382453723</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2089,7 +2536,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>59224.066810971111</v>
+        <v>43378.44871272461</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2100,7 +2547,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>45903.701018621665</v>
+        <v>83116.923065841518</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2111,7 +2558,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>84227.214876323356</v>
+        <v>63059.768014095316</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2122,7 +2569,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>61708.262758883255</v>
+        <v>71955.925933007296</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2133,7 +2580,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>14702.520236082124</v>
+        <v>56271.804204263957</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2144,7 +2591,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>35871.559656574071</v>
+        <v>36090.433412810715</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2155,7 +2602,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>49851.199492937943</v>
+        <v>43350.414426379546</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2166,7 +2613,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>46230.575387549456</v>
+        <v>61090.85922821796</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2177,7 +2624,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>44623.728001009105</v>
+        <v>54966.793151940336</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2188,7 +2635,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>74363.854947079759</v>
+        <v>42059.262904550415</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2199,7 +2646,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>90662.448865045546</v>
+        <v>38219.800320298717</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2210,7 +2657,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>91370.608249378944</v>
+        <v>47377.698032362314</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2221,7 +2668,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>60746.822151104818</v>
+        <v>47496.705382346889</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2232,7 +2679,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>74973.043973194654</v>
+        <v>66779.247097852887</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -2243,7 +2690,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>100453.76826903422</v>
+        <v>37671.62470782132</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -2254,7 +2701,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>78926.333066059247</v>
+        <v>37623.893615410227</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -2265,7 +2712,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>73142.857755412522</v>
+        <v>42831.968326419956</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -2276,7 +2723,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>42734.767125540078</v>
+        <v>37623.893615410227</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -2287,7 +2734,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>83058.423322028262</v>
+        <v>38470.094806400084</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -2298,7 +2745,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>101477.058855717</v>
+        <v>36597.171043799244</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -2309,7 +2756,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>75555.15151018351</v>
+        <v>100814.76466921954</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -2320,7 +2767,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>98853.950955201159</v>
+        <v>33429.256232879707</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -2331,7 +2778,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>76018.891102220034</v>
+        <v>60944.05787001217</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -2342,7 +2789,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>97756.286115872528</v>
+        <v>74425.715559222081</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -2353,7 +2800,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>67303.985392080038</v>
+        <v>32958.109088007841</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -2364,7 +2811,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>56243.961110920631</v>
+        <v>67558.238976079301</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2375,7 +2822,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>82595.25426064778</v>
+        <v>59224.066810971111</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -2386,7 +2833,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>84011.218743031874</v>
+        <v>45903.701018621665</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -2397,7 +2844,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>88300.781032437968</v>
+        <v>84227.214876323356</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -2408,7 +2855,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>58379.892557308907</v>
+        <v>61708.262758883255</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -2419,7 +2866,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>83604.236126050411</v>
+        <v>77848.465210132068</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -2430,7 +2877,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>82315.506282862669</v>
+        <v>14702.520236082124</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -2441,7 +2888,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>84348.786977742871</v>
+        <v>35871.559656574071</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -2452,7 +2899,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>93660.013470508828</v>
+        <v>49851.199492937943</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -2463,7 +2910,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>96150.428370955633</v>
+        <v>46230.575387549456</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -2474,7 +2921,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>51940.321757212834</v>
+        <v>44623.728001009105</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -2485,7 +2932,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>96354.611408780547</v>
+        <v>80936.097583170267</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -2496,7 +2943,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>80573.374285817088</v>
+        <v>74363.854947079759</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -2507,7 +2954,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>97503.486932907676</v>
+        <v>90662.448865045546</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -2518,7 +2965,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>56481.053232549399</v>
+        <v>61061.019849688193</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -2529,7 +2976,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>68972.139377233616</v>
+        <v>91370.608249378944</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -2540,7 +2987,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>75710.765602353844</v>
+        <v>85781.503569259512</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -2551,7 +2998,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>88724.542613319645</v>
+        <v>60746.822151104818</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -2562,7 +3009,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>80091.075926622783</v>
+        <v>74973.043973194654</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -2573,7 +3020,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>75197.443893275093</v>
+        <v>78323.369689267056</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -2584,7 +3031,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>62683.492019497004</v>
+        <v>100453.76826903422</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -2595,7 +3042,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>62698.014380067165</v>
+        <v>78926.333066059247</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2606,7 +3053,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>78491.891294156128</v>
+        <v>73142.857755412522</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -2617,7 +3064,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>57271.515861269887</v>
+        <v>42734.767125540078</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2628,7 +3075,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>73134.450297408301</v>
+        <v>83058.423322028262</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2639,7 +3086,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>82097.338672028432</v>
+        <v>101477.058855717</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2650,7 +3097,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>50715.472822433439</v>
+        <v>75555.15151018351</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2661,7 +3108,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>86752.645386197502</v>
+        <v>98853.950955201159</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2672,7 +3119,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>84014.770259599638</v>
+        <v>76018.891102220034</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -2683,7 +3130,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>92685.512703651635</v>
+        <v>97756.286115872528</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -2694,7 +3141,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>67566.105647173215</v>
+        <v>85852.717544239116</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -2705,7 +3152,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>80900.220136728909</v>
+        <v>67303.985392080038</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -2716,7 +3163,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>68359.673513026879</v>
+        <v>56243.961110920631</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -2727,7 +3174,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>68636.277972034921</v>
+        <v>82595.25426064778</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -2738,7 +3185,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>69419.19179715222</v>
+        <v>84011.218743031874</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2749,7 +3196,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>85841.873556854945</v>
+        <v>88300.781032437968</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -2760,7 +3207,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>58487.229832719779</v>
+        <v>58379.892557308907</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2771,7 +3218,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>86891.587648800705</v>
+        <v>83604.236126050411</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2782,7 +3229,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>60298.279806488048</v>
+        <v>82315.506282862669</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2793,7 +3240,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>74801.854766403107</v>
+        <v>84348.786977742871</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -2804,7 +3251,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>92410.119228294672</v>
+        <v>93660.013470508828</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -2815,7 +3262,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>63619.554084019386</v>
+        <v>96150.428370955633</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -2826,7 +3273,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>71328.536176782945</v>
+        <v>51940.321757212834</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -2837,7 +3284,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>91695.306727840085</v>
+        <v>78471.061782706136</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -2848,7 +3295,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>72851.848422821538</v>
+        <v>96354.611408780547</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -2859,7 +3306,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>75093.476356904823</v>
+        <v>80573.374285817088</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -2870,7 +3317,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>63687.873660289682</v>
+        <v>97503.486932907676</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -2881,7 +3328,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>74240.021351867326</v>
+        <v>56481.053232549399</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -2892,7 +3339,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>61903.984734718324</v>
+        <v>68972.139377233616</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -2903,7 +3350,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>92425.982798287791</v>
+        <v>75710.765602353844</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -2914,7 +3361,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>75370.08877187701</v>
+        <v>88724.542613319645</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -2925,7 +3372,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>91444.950175629303</v>
+        <v>80091.075926622783</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2936,7 +3383,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>69068.932973700081</v>
+        <v>75197.443893275093</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -2947,7 +3394,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>87782.180833665203</v>
+        <v>62683.492019497004</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -2958,7 +3405,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>72626.219512679672</v>
+        <v>62698.014380067165</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -2969,7 +3416,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>75945.692468888083</v>
+        <v>78491.891294156128</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -2980,7 +3427,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>76768.987469674583</v>
+        <v>57271.515861269887</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -2991,7 +3438,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>58084.799304621731</v>
+        <v>73134.450297408301</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -3002,7 +3449,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>56256.225070015833</v>
+        <v>82097.338672028432</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -3013,7 +3460,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>77182.86613691847</v>
+        <v>50715.472822433439</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -3024,7 +3471,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>88052.559417874116</v>
+        <v>86752.645386197502</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -3035,7 +3482,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>31360.558531608174</v>
+        <v>84014.770259599638</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -3046,7 +3493,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>32777.613104969176</v>
+        <v>84707.087168615108</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -3057,7 +3504,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>98043.509870594949</v>
+        <v>92685.512703651635</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -3068,7 +3515,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>83523.413326850423</v>
+        <v>67566.105647173215</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -3079,7 +3526,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>30558.075313312849</v>
+        <v>80900.220136728909</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -3090,7 +3537,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>61380.076573422004</v>
+        <v>68359.673513026879</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -3101,7 +3548,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>57456.346372062704</v>
+        <v>68636.277972034921</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -3112,7 +3559,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>85444.84281657364</v>
+        <v>69419.19179715222</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -3123,7 +3570,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>74491.328114424803</v>
+        <v>85841.873556854945</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -3134,7 +3581,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>17912.02335052405</v>
+        <v>58487.229832719779</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -3145,7 +3592,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>37766.634109287566</v>
+        <v>86891.587648800705</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -3156,7 +3603,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>48205.469243719315</v>
+        <v>60298.279806488048</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -3167,7 +3614,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>55442.62096128214</v>
+        <v>74801.854766403107</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -3178,7 +3625,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>83279.186011253434</v>
+        <v>92410.119228294672</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -3189,7 +3636,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>36092.272905738311</v>
+        <v>63619.554084019386</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -3200,7 +3647,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>37246.971779884494</v>
+        <v>71328.536176782945</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -3211,7 +3658,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>49820.232213549418</v>
+        <v>91695.306727840085</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -3222,7 +3669,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>37282.915586325558</v>
+        <v>72851.848422821538</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -3233,7 +3680,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>76807.967244869636</v>
+        <v>75093.476356904823</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -3244,7 +3691,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>76807.967244869636</v>
+        <v>63687.873660289682</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -3255,7 +3702,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>64536.600161501905</v>
+        <v>74240.021351867326</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -3266,7 +3713,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>73039.173978218445</v>
+        <v>61903.984734718324</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -3277,7 +3724,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>92827.971703941948</v>
+        <v>92425.982798287791</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -3288,7 +3735,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>63829.116422645107</v>
+        <v>75370.08877187701</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -3299,7 +3746,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>56941.850636928502</v>
+        <v>91444.950175629303</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -3310,7 +3757,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>65418.041469561591</v>
+        <v>69068.932973700081</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -3321,7 +3768,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>48224.638817408209</v>
+        <v>87782.180833665203</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -3332,7 +3779,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>70806.754093698604</v>
+        <v>72626.219512679672</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -3343,7 +3790,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>73857.270400680471</v>
+        <v>75945.692468888083</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -3354,7 +3801,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>87885.642908553971</v>
+        <v>76768.987469674583</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -3365,7 +3812,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>63778.923746353714</v>
+        <v>58084.799304621731</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -3376,7 +3823,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>80361.65073422798</v>
+        <v>56256.225070015833</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -3387,7 +3834,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>54322.390502001494</v>
+        <v>77182.86613691847</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -3398,7 +3845,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>77018.826700036152</v>
+        <v>88052.559417874116</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -3409,7 +3856,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>68205.263301630373</v>
+        <v>31360.558531608174</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -3420,7 +3867,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>61538.780966948994</v>
+        <v>32777.613104969176</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -3431,7 +3878,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>61889.262217698779</v>
+        <v>98043.509870594949</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -3442,7 +3889,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>69310.848688175654</v>
+        <v>83134.729121587981</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -3453,7 +3900,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>70307.808736939565</v>
+        <v>83523.413326850423</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -3464,7 +3911,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>78391.635189638619</v>
+        <v>55340.189885422573</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -3475,7 +3922,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>91157.745874864297</v>
+        <v>82042.397856537689</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -3486,7 +3933,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>101967.02302072878</v>
+        <v>30558.075313312849</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -3497,7 +3944,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>89890.576196013862</v>
+        <v>69778.222622509566</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -3508,7 +3955,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>81810.966894231475</v>
+        <v>61380.076573422004</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -3519,7 +3966,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>95928.297026495115</v>
+        <v>56548.23275339618</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -3530,7 +3977,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>81810.966894231475</v>
+        <v>57456.346372062704</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -3541,7 +3988,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>83153.650403532884</v>
+        <v>85444.84281657364</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -3552,7 +3999,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>93276.76740304452</v>
+        <v>67494.609968227029</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -3563,7 +4010,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>82435.065997275553</v>
+        <v>74491.328114424803</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -3574,7 +4021,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>83751.797871857882</v>
+        <v>53298.865815264275</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -3585,7 +4032,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>77795.830421290098</v>
+        <v>56548.23275339618</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -3596,7 +4043,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>93061.393011600245</v>
+        <v>60645.841392372065</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -3607,7 +4054,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>76281.003868274711</v>
+        <v>64680.51341980396</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -3618,7 +4065,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>91197.874792665694</v>
+        <v>73646.521186394064</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -3629,7 +4076,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>73739.429943704032</v>
+        <v>62810.557681025894</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -3640,7 +4087,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>39058.076643799577</v>
+        <v>17912.02335052405</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -3651,7 +4098,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>84273.762260966047</v>
+        <v>37766.634109287566</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -3662,7 +4109,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>77624.322204831115</v>
+        <v>59249.930398528726</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -3673,7 +4120,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>15191.196513910505</v>
+        <v>68585.107322953074</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -3684,7 +4131,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>80882.375625775225</v>
+        <v>78567.184081459738</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -3695,7 +4142,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>26775.244955530641</v>
+        <v>69734.894353903554</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -3706,7 +4153,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>26787.392257933814</v>
+        <v>87316.172112742439</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -3717,7 +4164,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>54772.958261414431</v>
+        <v>62937.351393942969</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -3728,7 +4175,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>44682.25546545726</v>
+        <v>64523.214150770815</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -3739,7 +4186,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>59526.885179346413</v>
+        <v>87455.496448189049</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -3750,7 +4197,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>45372.971418479618</v>
+        <v>48205.469243719315</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -3761,7 +4208,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>52197.208795355822</v>
+        <v>69778.222622509566</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -3772,7 +4219,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>39532.079327432759</v>
+        <v>55914.284733282562</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -3783,7 +4230,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>78282.936042391506</v>
+        <v>73425.901904763115</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -3794,7 +4241,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>83243.326206197948</v>
+        <v>57504.737309553107</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -3805,7 +4252,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>52351.026713261948</v>
+        <v>84561.520445443632</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -3816,7 +4263,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>50224.715774921162</v>
+        <v>71079.124863308418</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -3827,7 +4274,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>58957.011969116982</v>
+        <v>93566.438543152428</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -3838,7 +4285,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>53470.069563818717</v>
+        <v>78556.939238437641</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -3849,7 +4296,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>39964.694220585108</v>
+        <v>55442.62096128214</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -3860,7 +4307,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>42444.536661099206</v>
+        <v>83985.260182971077</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -3871,7 +4318,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>40433.336318845642</v>
+        <v>73395.288618452541</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -3882,7 +4329,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>47042.252736557813</v>
+        <v>79850.64258326008</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -3893,7 +4340,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>82792.60931118943</v>
+        <v>55415.113275484968</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -3904,7 +4351,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>92883.985996319025</v>
+        <v>83279.186011253434</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -3915,7 +4362,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>85824.704376464142</v>
+        <v>52785.870587931771</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -3926,7 +4373,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>35619.777393921206</v>
+        <v>36092.272905738311</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -3937,7 +4384,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>85824.704376464142</v>
+        <v>37246.971779884494</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -3948,7 +4395,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>79896.808117691966</v>
+        <v>75161.116913074467</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -3959,7 +4406,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>78338.394280285167</v>
+        <v>77562.404128059847</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -3970,7 +4417,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>91497.360891895863</v>
+        <v>66482.72461704335</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -3981,7 +4428,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>82284.568510135083</v>
+        <v>49820.232213549418</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -3992,7 +4439,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>83942.59179733276</v>
+        <v>37282.915586325558</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -4003,7 +4450,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>82792.60931118943</v>
+        <v>56706.058151206889</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -4014,7 +4461,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>96362.851599208618</v>
+        <v>74488.296555303794</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -4025,7 +4472,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>83991.973964203367</v>
+        <v>80956.9331806025</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -4036,7 +4483,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>60757.480142281434</v>
+        <v>76807.967244869636</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -4047,7 +4494,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>76491.302886420017</v>
+        <v>76807.967244869636</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -4058,7 +4505,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>85824.704376464142</v>
+        <v>37153.981532008635</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -4069,7 +4516,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>85824.704376464142</v>
+        <v>47927.034352356379</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -4080,7 +4527,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>90698.779187766355</v>
+        <v>58020.287470948519</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -4091,7 +4538,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>85824.704376464142</v>
+        <v>64536.600161501905</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -4102,7 +4549,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>85985.419394236553</v>
+        <v>73039.173978218445</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -4113,7 +4560,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>67559.590735136677</v>
+        <v>92827.971703941948</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -4124,7 +4571,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>72743.929664867333</v>
+        <v>63829.116422645107</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -4135,7 +4582,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>83672.352667571002</v>
+        <v>56941.850636928502</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -4146,7 +4593,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>83402.301823822068</v>
+        <v>65418.041469561591</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -4157,7 +4604,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>66040.182415349846</v>
+        <v>48224.638817408209</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -4168,7 +4615,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>84374.624920481889</v>
+        <v>70806.754093698604</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -4179,7 +4626,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>87831.179650024336</v>
+        <v>73857.270400680471</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -4190,7 +4637,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>86709.973422027164</v>
+        <v>87885.642908553971</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -4201,7 +4648,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>67780.737610369732</v>
+        <v>63778.923746353714</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -4212,7 +4659,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>96241.505716468135</v>
+        <v>80361.65073422798</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -4223,7 +4670,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>81914.445420890537</v>
+        <v>54322.390502001494</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -4234,7 +4681,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>79421.245219372635</v>
+        <v>77018.826700036152</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -4245,7 +4692,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>77982.450658963411</v>
+        <v>68205.263301630373</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -4256,7 +4703,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>93784.923737146426</v>
+        <v>61538.780966948994</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -4267,7 +4714,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>74773.898003271999</v>
+        <v>61889.262217698779</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -4278,7 +4725,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>94290.210512042511</v>
+        <v>69310.848688175654</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -4289,7 +4736,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>83783.011984103112</v>
+        <v>70307.808736939565</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -4300,7 +4747,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>97537.044073100493</v>
+        <v>78391.635189638619</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -4311,9 +4758,1648 @@
         <v>302</v>
       </c>
       <c r="B303">
+        <v>91157.745874864297</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>39418.562968411396</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>42763.087712090026</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>38391.069696747698</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>101967.02302072878</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>89890.576196013862</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>81810.966894231475</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>95928.297026495115</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>81810.966894231475</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>83153.650403532884</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>93276.76740304452</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>82435.065997275553</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>83751.797871857882</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>77795.830421290098</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>93061.393011600245</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>76281.003868274711</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>57914.70065656201</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>70583.993858676258</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>91197.874792665694</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>73739.429943704032</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>49769.526593512041</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>83312.338511958878</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>70576.623375951749</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>77449.516665328207</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>64867.231331700314</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>81446.960619117381</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>79052.536807393117</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>62870.90689126683</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>39058.076643799577</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>84273.762260966047</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>41580.777905573195</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>77624.322204831115</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>70657.647840401114</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>15191.196513910505</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>84934.540803973432</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>77387.460730985709</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>80882.375625775225</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>84934.540803973432</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>42961.385922540183</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>61929.486958257941</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>76291.189404790333</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>88467.914174572856</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>71738.139201299316</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>66923.436514691813</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>66923.436514691813</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>68305.715217047196</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>69766.610172687535</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>63882.570641655504</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>48670.870106897855</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>76126.130250270362</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>87196.457183341176</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>58770.87667585809</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>61050.655656266506</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>26775.244955530641</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>26787.392257933814</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>54772.958261414431</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>69697.462223884184</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>44682.25546545726</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>59526.885179346413</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>45372.971418479618</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>52197.208795355822</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>49313.744245806636</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>50807.508649413503</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>39532.079327432759</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>78282.936042391506</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>50314.49400158471</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>83243.326206197948</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>57432.185936655791</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>52351.026713261948</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>50224.715774921162</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>58957.011969116982</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>53470.069563818717</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>39964.694220585108</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>56636.270192925746</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>42444.536661099206</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>40433.336318845642</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>57432.185936655791</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>47042.252736557813</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>61346.331733577565</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>82792.60931118943</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>61346.331733577565</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>36794.072963042781</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>60932.876293420442</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>61346.331733577565</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>92883.985996319025</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>64139.262566420512</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>85824.704376464142</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>35619.777393921206</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>51708.192564429613</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>61346.331733577565</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>85824.704376464142</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>79896.808117691966</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>58541.623936944481</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>48147.918817012964</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>78338.394280285167</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>61346.331733577565</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>60184.798488136745</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>61263.645271102127</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>91497.360891895863</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>60184.798488136745</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>82284.568510135083</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>61346.331733577565</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>61346.331733577565</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>83942.59179733276</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>82792.60931118943</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>64139.262566420512</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>54722.055022782777</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>96362.851599208618</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>60184.798488136745</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>83991.973964203367</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>55365.836469892922</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>48147.918817012964</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>61346.331733577565</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>60757.480142281434</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>76491.302886420017</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>53278.131883964597</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>60184.798488136745</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>85824.704376464142</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>61346.331733577565</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>85824.704376464142</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>90698.779187766355</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>60184.798488136745</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>85824.704376464142</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>61346.331733577565</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>85985.419394236553</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>61346.331733577565</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>67559.590735136677</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>72743.929664867333</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>83672.352667571002</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>83402.301823822068</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>66040.182415349846</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>84374.624920481889</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>87831.179650024336</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>86709.973422027164</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>67780.737610369732</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>96241.505716468135</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>81914.445420890537</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>79421.245219372635</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>77982.450658963411</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>93784.923737146426</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>74773.898003271999</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>94290.210512042511</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>83783.011984103112</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>97537.044073100493</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>92459.435931892294</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>99420.934705392079</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>92177.167706188819</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>96777.602432974163</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B451">
         <v>82478.553512950704</v>
       </c>
-      <c r="C303">
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>55993.402574451538</v>
+      </c>
+      <c r="C452">
         <v>1</v>
       </c>
     </row>
